--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3560" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_A" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_B" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_总" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </externalReferences>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -833,16 +835,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -1341,7 +1343,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.5" customHeight="1" s="47">
+    <row r="2" hidden="1" ht="42.5" customHeight="1" s="47">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index No.(Do NOT delete or alter)</t>
@@ -1781,7 +1783,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1" s="47">
       <c r="A3" s="24" t="n">
         <v>1</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v/>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1" s="47">
       <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v/>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1" s="47">
       <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v/>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1" s="47">
       <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v/>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1" s="47">
       <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v/>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1" s="47">
       <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v/>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1" s="47">
       <c r="A9" s="28" t="n">
         <v>7</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v/>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1" s="47">
       <c r="A10" s="28" t="n">
         <v>8</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v/>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1" s="47">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增1</t>
@@ -4793,7 +4795,7 @@
         <v/>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1" s="47">
       <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1" s="47">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增2</t>
@@ -5471,7 +5473,7 @@
         <v/>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1" s="47">
       <c r="A14" s="24" t="n">
         <v>10</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="1" s="38">
+    <row r="15" hidden="1" customFormat="1" s="38">
       <c r="A15" s="24" t="n">
         <v>11</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1" s="47">
       <c r="A16" s="24" t="n">
         <v>12</v>
       </c>
@@ -6473,7 +6475,7 @@
         <v/>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1" s="47">
       <c r="A17" s="24" t="n">
         <v>13</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="1" s="38">
+    <row r="18" hidden="1" customFormat="1" s="38">
       <c r="A18" s="24" t="n">
         <v>14</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v/>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1" s="47">
       <c r="A19" s="24" t="n">
         <v>15</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1" s="47">
       <c r="A20" s="24" t="n">
         <v>16</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v/>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1" s="47">
       <c r="A21" s="24" t="n">
         <v>17</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v/>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1" s="47">
       <c r="A22" s="24" t="n">
         <v>18</v>
       </c>
@@ -13173,7 +13175,7 @@
         <v/>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1" s="47">
       <c r="A37" s="24" t="n">
         <v>33</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v/>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1" s="47">
       <c r="A38" s="24" t="n">
         <v>34</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="1" s="38">
+    <row r="39" hidden="1" customFormat="1" s="38">
       <c r="A39" s="24" t="n">
         <v>35</v>
       </c>
@@ -14173,7 +14175,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="1" s="38">
+    <row r="40" hidden="1" customFormat="1" s="38">
       <c r="A40" s="24" t="n">
         <v>36</v>
       </c>
@@ -14513,7 +14515,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="1" s="38">
+    <row r="41" hidden="1" customFormat="1" s="38">
       <c r="A41" s="28" t="n">
         <v>37</v>
       </c>
@@ -14855,7 +14857,7 @@
         <v/>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1" s="47">
       <c r="A42" s="24" t="n">
         <v>38</v>
       </c>
@@ -15179,7 +15181,7 @@
         <v/>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1" s="47">
       <c r="A43" s="24" t="n">
         <v>39</v>
       </c>
@@ -15503,7 +15505,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="1" s="38">
+    <row r="44" hidden="1" customFormat="1" s="38">
       <c r="A44" s="28" t="n">
         <v>40</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v/>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1" s="47">
       <c r="A45" s="28" t="n">
         <v>41</v>
       </c>
@@ -16157,7 +16159,7 @@
         <v/>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1" s="47">
       <c r="A46" s="24" t="n">
         <v>42</v>
       </c>
@@ -16481,7 +16483,7 @@
         <v/>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1" s="47">
       <c r="A47" s="24" t="n">
         <v>43</v>
       </c>
@@ -16805,7 +16807,7 @@
         <v/>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1" s="47">
       <c r="A48" s="24" t="n">
         <v>44</v>
       </c>
@@ -17129,7 +17131,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="1" s="38">
+    <row r="49" hidden="1" customFormat="1" s="38">
       <c r="A49" s="28" t="n">
         <v>45</v>
       </c>
@@ -17471,7 +17473,7 @@
         <v/>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1" s="47">
       <c r="A50" s="24" t="n">
         <v>46</v>
       </c>
@@ -17795,7 +17797,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="1" s="38">
+    <row r="51" hidden="1" customFormat="1" s="38">
       <c r="A51" s="28" t="n">
         <v>47</v>
       </c>
@@ -18123,7 +18125,7 @@
         <v/>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1" s="47">
       <c r="A52" s="24" t="n">
         <v>48</v>
       </c>
@@ -18447,7 +18449,7 @@
         <v/>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1" s="47">
       <c r="A53" s="24" t="n">
         <v>49</v>
       </c>
@@ -18767,7 +18769,7 @@
         <v/>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1" s="47">
       <c r="A54" s="24" t="n">
         <v>50</v>
       </c>
@@ -19085,7 +19087,7 @@
         <v/>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1" s="47">
       <c r="A55" s="24" t="n">
         <v>51</v>
       </c>
@@ -19403,7 +19405,7 @@
         <v/>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1" s="47">
       <c r="A56" s="24" t="n">
         <v>52</v>
       </c>
@@ -19721,7 +19723,7 @@
         <v/>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1" s="47">
       <c r="A57" s="24" t="n">
         <v>53</v>
       </c>
@@ -20041,7 +20043,7 @@
         <v/>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1" s="47">
       <c r="A58" s="24" t="n">
         <v>54</v>
       </c>
@@ -20361,7 +20363,7 @@
         <v/>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1" s="47">
       <c r="A59" s="24" t="n">
         <v>55</v>
       </c>
@@ -20681,7 +20683,7 @@
         <v/>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1" s="47">
       <c r="A60" s="24" t="n">
         <v>56</v>
       </c>
@@ -21001,7 +21003,7 @@
         <v/>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1" s="47">
       <c r="A61" s="24" t="n">
         <v>57</v>
       </c>
@@ -21321,7 +21323,7 @@
         <v/>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1" s="47">
       <c r="A62" s="24" t="n">
         <v>58</v>
       </c>
@@ -21655,7 +21657,7 @@
         <v/>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1" s="47">
       <c r="A63" s="24" t="n">
         <v>59</v>
       </c>
@@ -21989,7 +21991,7 @@
         <v/>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1" s="47">
       <c r="A64" s="24" t="n">
         <v>60</v>
       </c>
@@ -22323,7 +22325,7 @@
         <v/>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1" s="47">
       <c r="A65" s="24" t="n">
         <v>61</v>
       </c>
@@ -22661,7 +22663,7 @@
         <v/>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1" s="47">
       <c r="A66" s="24" t="n">
         <v>62</v>
       </c>
@@ -22995,7 +22997,7 @@
         <v/>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1" s="47">
       <c r="A67" s="24" t="n">
         <v>63</v>
       </c>
@@ -23327,7 +23329,7 @@
         <v/>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1" s="47">
       <c r="A68" s="24" t="n">
         <v>64</v>
       </c>
@@ -23649,7 +23651,7 @@
         <v/>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1" s="47">
       <c r="A69" s="24" t="n">
         <v>65</v>
       </c>
@@ -23971,7 +23973,7 @@
         <v/>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1" s="47">
       <c r="A70" s="24" t="n">
         <v>66</v>
       </c>
@@ -24309,7 +24311,7 @@
         <v/>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1" s="47">
       <c r="A71" s="24" t="n">
         <v>67</v>
       </c>
@@ -24643,7 +24645,7 @@
         <v/>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1" s="47">
       <c r="A72" s="24" t="n">
         <v>68</v>
       </c>
@@ -24965,7 +24967,7 @@
         <v/>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1" s="47">
       <c r="A73" s="24" t="n">
         <v>69</v>
       </c>
@@ -25297,7 +25299,7 @@
         <v/>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1" s="47">
       <c r="A74" s="24" t="n">
         <v>70</v>
       </c>
@@ -25619,7 +25621,7 @@
         <v/>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1" s="47">
       <c r="A75" s="24" t="n">
         <v>71</v>
       </c>
@@ -25939,7 +25941,7 @@
         <v/>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1" s="47">
       <c r="A76" s="24" t="n">
         <v>72</v>
       </c>
@@ -26261,7 +26263,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="1" s="31">
+    <row r="77" hidden="1" customFormat="1" s="31">
       <c r="A77" s="29" t="n">
         <v>73</v>
       </c>
@@ -26599,7 +26601,7 @@
         <v/>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1" s="47">
       <c r="A78" s="24" t="n">
         <v>74</v>
       </c>
@@ -26933,7 +26935,7 @@
         <v/>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1" s="47">
       <c r="A79" s="24" t="n">
         <v>75</v>
       </c>
@@ -27255,7 +27257,7 @@
         <v/>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1" s="47">
       <c r="A80" s="24" t="n">
         <v>76</v>
       </c>
@@ -27577,7 +27579,7 @@
         <v/>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1" s="47">
       <c r="A81" s="24" t="n">
         <v>77</v>
       </c>
@@ -27911,7 +27913,7 @@
         <v/>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1" s="47">
       <c r="A82" s="24" t="n">
         <v>78</v>
       </c>
@@ -28241,7 +28243,7 @@
         <v/>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1" s="47">
       <c r="A83" s="24" t="n">
         <v>79</v>
       </c>
@@ -28563,7 +28565,7 @@
         <v/>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1" s="47">
       <c r="A84" s="24" t="n">
         <v>80</v>
       </c>
@@ -28883,7 +28885,7 @@
         <v/>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1" s="47">
       <c r="A85" s="28" t="n">
         <v>81</v>
       </c>
@@ -29207,7 +29209,7 @@
         <v/>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1" s="47">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增</t>
@@ -29533,7 +29535,7 @@
         <v/>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1" s="47">
       <c r="A87" s="24" t="n">
         <v>82</v>
       </c>
@@ -29855,7 +29857,7 @@
         <v/>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1" s="47">
       <c r="A88" s="24" t="n">
         <v>83</v>
       </c>
@@ -30177,7 +30179,7 @@
         <v/>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1" s="47">
       <c r="A89" s="24" t="n">
         <v>84</v>
       </c>
@@ -30499,7 +30501,7 @@
         <v/>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1" s="47">
       <c r="A90" s="24" t="n">
         <v>85</v>
       </c>
@@ -30821,7 +30823,7 @@
         <v/>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1" s="47">
       <c r="A91" s="24" t="n">
         <v>86</v>
       </c>
@@ -31143,7 +31145,7 @@
         <v/>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1" s="47">
       <c r="A92" s="24" t="n">
         <v>87</v>
       </c>
@@ -31465,7 +31467,7 @@
         <v/>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1" s="47">
       <c r="A93" s="24" t="n">
         <v>88</v>
       </c>
@@ -31787,7 +31789,7 @@
         <v/>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1" s="47">
       <c r="A94" s="24" t="n">
         <v>89</v>
       </c>
@@ -32113,7 +32115,7 @@
         <v/>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1" s="47">
       <c r="A95" s="24" t="n">
         <v>90</v>
       </c>
@@ -32447,7 +32449,7 @@
         <v/>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1" s="47">
       <c r="A96" s="24" t="n">
         <v>91</v>
       </c>
@@ -32769,7 +32771,7 @@
         <v/>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1" s="47">
       <c r="A97" s="24" t="n">
         <v>92</v>
       </c>
@@ -33089,7 +33091,7 @@
         <v/>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1" s="47">
       <c r="A98" s="24" t="n">
         <v>93</v>
       </c>
@@ -33413,7 +33415,7 @@
         <v/>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1" s="47">
       <c r="A99" s="24" t="n">
         <v>94</v>
       </c>
@@ -33735,7 +33737,7 @@
         <v/>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1" s="47">
       <c r="A100" s="24" t="n">
         <v>95</v>
       </c>
@@ -34057,7 +34059,7 @@
         <v/>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1" s="47">
       <c r="A101" s="24" t="n">
         <v>96</v>
       </c>
@@ -34379,7 +34381,7 @@
         <v/>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1" s="47">
       <c r="A102" s="24" t="n">
         <v>97</v>
       </c>
@@ -34697,7 +34699,7 @@
         <v/>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1" s="47">
       <c r="A103" s="24" t="n">
         <v>98</v>
       </c>
@@ -35017,7 +35019,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="1" s="38">
+    <row r="104" hidden="1" customFormat="1" s="38">
       <c r="A104" s="36" t="n">
         <v>99</v>
       </c>
@@ -35353,7 +35355,7 @@
         <v/>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="1" s="47">
       <c r="A105" s="24" t="n">
         <v>100</v>
       </c>
@@ -35673,7 +35675,7 @@
         <v/>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1" s="47">
       <c r="A106" s="24" t="n">
         <v>101</v>
       </c>
@@ -35995,7 +35997,7 @@
         <v/>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1" s="47">
       <c r="A107" s="24" t="n">
         <v>102</v>
       </c>
@@ -36315,7 +36317,7 @@
         <v/>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1" s="47">
       <c r="A108" s="24" t="n">
         <v>103</v>
       </c>
@@ -36647,7 +36649,7 @@
         <v/>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1" s="47">
       <c r="A109" s="28" t="n">
         <v>104</v>
       </c>
@@ -36981,7 +36983,7 @@
         <v/>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1" s="47">
       <c r="A110" s="24" t="n">
         <v>105</v>
       </c>
@@ -37301,7 +37303,7 @@
         <v/>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="1" s="47">
       <c r="A111" s="24" t="n">
         <v>106</v>
       </c>
@@ -37621,7 +37623,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="1" s="38">
+    <row r="112" hidden="1" customFormat="1" s="38">
       <c r="A112" s="36" t="n">
         <v>107</v>
       </c>
@@ -37953,7 +37955,7 @@
         <v/>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1" s="47">
       <c r="A113" s="24" t="n">
         <v>108</v>
       </c>
@@ -38273,7 +38275,7 @@
         <v/>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1" s="47">
       <c r="A114" s="24" t="n">
         <v>109</v>
       </c>
@@ -38595,7 +38597,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="1" s="38">
+    <row r="115" hidden="1" customFormat="1" s="38">
       <c r="A115" s="36" t="n">
         <v>110</v>
       </c>
@@ -38915,7 +38917,7 @@
         <v/>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="1" s="47">
       <c r="A116" s="24" t="n">
         <v>111</v>
       </c>
@@ -39235,7 +39237,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="1" s="38">
+    <row r="117" hidden="1" customFormat="1" s="38">
       <c r="A117" s="36" t="n">
         <v>112</v>
       </c>
@@ -39567,7 +39569,7 @@
         <v/>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="1" s="47">
       <c r="A118" s="24" t="n">
         <v>113</v>
       </c>
@@ -39889,7 +39891,7 @@
         <v/>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="1" s="47">
       <c r="A119" s="24" t="n">
         <v>114</v>
       </c>
@@ -40211,7 +40213,7 @@
         <v/>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="1" s="47">
       <c r="A120" s="24" t="n">
         <v>115</v>
       </c>
@@ -40533,7 +40535,7 @@
         <v/>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="1" s="47">
       <c r="A121" s="24" t="n">
         <v>116</v>
       </c>
@@ -40853,7 +40855,7 @@
         <v/>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="1" s="47">
       <c r="A122" s="24" t="n">
         <v>117</v>
       </c>
@@ -41175,7 +41177,7 @@
         <v/>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="1" s="47">
       <c r="A123" s="24" t="n">
         <v>118</v>
       </c>
@@ -41497,7 +41499,7 @@
         <v/>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="1" s="47">
       <c r="A124" s="24" t="n">
         <v>119</v>
       </c>
@@ -41817,7 +41819,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="1" s="38">
+    <row r="125" hidden="1" customFormat="1" s="38">
       <c r="A125" s="36" t="n">
         <v>120</v>
       </c>
@@ -42141,7 +42143,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" customFormat="1" s="38">
+    <row r="126" hidden="1" customFormat="1" s="38">
       <c r="A126" s="36" t="n">
         <v>121</v>
       </c>
@@ -42461,7 +42463,7 @@
         <v/>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="1" s="47">
       <c r="A127" s="24" t="n">
         <v>122</v>
       </c>
@@ -42781,7 +42783,7 @@
         <v/>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="1" s="47">
       <c r="A128" s="24" t="n">
         <v>123</v>
       </c>
@@ -43101,7 +43103,7 @@
         <v/>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="1" s="47">
       <c r="A129" s="24" t="n">
         <v>124</v>
       </c>
@@ -43419,7 +43421,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" customFormat="1" s="38">
+    <row r="130" hidden="1" customFormat="1" s="38">
       <c r="A130" s="36" t="n">
         <v>125</v>
       </c>
@@ -43739,7 +43741,7 @@
         <v/>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="1" s="47">
       <c r="A131" s="24" t="n">
         <v>126</v>
       </c>
@@ -44063,7 +44065,7 @@
         <v/>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="1" s="47">
       <c r="A132" s="24" t="n">
         <v>127</v>
       </c>
@@ -44383,7 +44385,7 @@
         <v/>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="1" s="47">
       <c r="A133" s="24" t="n">
         <v>128</v>
       </c>
@@ -44703,7 +44705,7 @@
         <v/>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="1" s="47">
       <c r="A134" s="24" t="n">
         <v>129</v>
       </c>
@@ -45023,7 +45025,7 @@
         <v/>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="1" s="47">
       <c r="A135" s="24" t="n">
         <v>130</v>
       </c>
@@ -45343,7 +45345,7 @@
         <v/>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="1" s="47">
       <c r="A136" s="24" t="n">
         <v>131</v>
       </c>
@@ -45661,7 +45663,7 @@
         <v/>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="1" s="47">
       <c r="A137" s="24" t="n">
         <v>132</v>
       </c>
@@ -45989,7 +45991,7 @@
         <v/>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="1" s="47">
       <c r="A138" s="24" t="n">
         <v>133</v>
       </c>
@@ -46313,7 +46315,7 @@
         <v/>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="1" s="47">
       <c r="A139" s="24" t="n">
         <v>134</v>
       </c>
@@ -46633,7 +46635,7 @@
         <v/>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="1" s="47">
       <c r="A140" s="24" t="n">
         <v>135</v>
       </c>
@@ -46953,7 +46955,7 @@
         <v/>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="1" s="47">
       <c r="A141" s="24" t="n">
         <v>136</v>
       </c>
@@ -47277,7 +47279,7 @@
         <v/>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="1" s="47">
       <c r="A142" s="24" t="n">
         <v>137</v>
       </c>
@@ -47597,7 +47599,7 @@
         <v/>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="1" s="47">
       <c r="A143" s="24" t="n">
         <v>138</v>
       </c>
@@ -47921,7 +47923,7 @@
         <v/>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="1" s="47">
       <c r="A144" s="24" t="n">
         <v>139</v>
       </c>
@@ -48241,7 +48243,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" customFormat="1" s="38">
+    <row r="145" hidden="1" customFormat="1" s="38">
       <c r="A145" s="36" t="n">
         <v>140</v>
       </c>
@@ -48561,7 +48563,7 @@
         <v/>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="1" s="47">
       <c r="A146" s="24" t="n">
         <v>141</v>
       </c>
@@ -48881,7 +48883,7 @@
         <v/>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="1" s="47">
       <c r="A147" s="24" t="n">
         <v>142</v>
       </c>
@@ -49209,7 +49211,7 @@
         <v/>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="1" s="47">
       <c r="A148" s="24" t="n">
         <v>143</v>
       </c>
@@ -49529,7 +49531,7 @@
         <v/>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="1" s="47">
       <c r="A149" s="24" t="n">
         <v>144</v>
       </c>
@@ -49849,7 +49851,7 @@
         <v/>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="1" s="47">
       <c r="A150" s="24" t="n">
         <v>145</v>
       </c>
@@ -50169,7 +50171,7 @@
         <v/>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="1" s="47">
       <c r="A151" s="24" t="n">
         <v>146</v>
       </c>
@@ -50489,7 +50491,7 @@
         <v/>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="1" s="47">
       <c r="A152" s="24" t="n">
         <v>147</v>
       </c>
@@ -50809,7 +50811,7 @@
         <v/>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="1" s="47">
       <c r="A153" s="24" t="n">
         <v>148</v>
       </c>
@@ -51129,7 +51131,7 @@
         <v/>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="1" s="47">
       <c r="A154" s="24" t="n">
         <v>149</v>
       </c>
@@ -51449,7 +51451,7 @@
         <v/>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="1" s="47">
       <c r="A155" s="24" t="n">
         <v>150</v>
       </c>
@@ -51769,7 +51771,7 @@
         <v/>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="1" s="47">
       <c r="A156" s="24" t="n">
         <v>151</v>
       </c>
@@ -52087,7 +52089,7 @@
         <v/>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="1" s="47">
       <c r="A157" s="24" t="n">
         <v>152</v>
       </c>
@@ -52405,7 +52407,7 @@
         <v/>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="1" s="47">
       <c r="A158" s="24" t="n">
         <v>153</v>
       </c>
@@ -52723,7 +52725,7 @@
         <v/>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="1" s="47">
       <c r="A159" s="24" t="n">
         <v>154</v>
       </c>
@@ -53041,7 +53043,7 @@
         <v/>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="1" s="47">
       <c r="A160" s="24" t="n">
         <v>155</v>
       </c>
@@ -53359,7 +53361,7 @@
         <v/>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="1" s="47">
       <c r="A161" s="24" t="n">
         <v>156</v>
       </c>
@@ -53677,7 +53679,7 @@
         <v/>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="1" s="47">
       <c r="A162" s="24" t="n">
         <v>157</v>
       </c>
@@ -53995,7 +53997,7 @@
         <v/>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="1" s="47">
       <c r="A163" s="24" t="n">
         <v>158</v>
       </c>
@@ -54313,7 +54315,7 @@
         <v/>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="1" s="47">
       <c r="A164" s="24" t="n">
         <v>159</v>
       </c>
@@ -54631,7 +54633,7 @@
         <v/>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="1" s="47">
       <c r="A165" s="24" t="n">
         <v>160</v>
       </c>
@@ -54949,7 +54951,7 @@
         <v/>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="1" s="47">
       <c r="A166" s="24" t="n">
         <v>161</v>
       </c>
@@ -55267,7 +55269,7 @@
         <v/>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="1" s="47">
       <c r="A167" s="24" t="n">
         <v>162</v>
       </c>
@@ -55585,7 +55587,7 @@
         <v/>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="1" s="47">
       <c r="A168" s="24" t="n">
         <v>163</v>
       </c>
@@ -55903,7 +55905,7 @@
         <v/>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="1" s="47">
       <c r="A169" s="24" t="n">
         <v>164</v>
       </c>
@@ -56225,7 +56227,7 @@
         <v/>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1" s="47">
       <c r="A170" s="24" t="n">
         <v>165</v>
       </c>
@@ -56555,7 +56557,7 @@
         <v/>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="1" s="47">
       <c r="A171" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增1</t>
@@ -56889,7 +56891,7 @@
         <v/>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="1" s="47">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>客户发展部新增2</t>
@@ -57227,7 +57229,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" customFormat="1" s="31">
+    <row r="173" hidden="1" customFormat="1" s="31">
       <c r="A173" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增3</t>
@@ -57563,7 +57565,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" customFormat="1" s="31">
+    <row r="174" hidden="1" customFormat="1" s="31">
       <c r="A174" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增4</t>
@@ -57897,7 +57899,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" customFormat="1" s="31">
+    <row r="175" hidden="1" customFormat="1" s="31">
       <c r="A175" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增5</t>
@@ -58231,7 +58233,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" customFormat="1" s="31">
+    <row r="176" hidden="1" customFormat="1" s="31">
       <c r="A176" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增6</t>
@@ -58565,7 +58567,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" customFormat="1" s="31">
+    <row r="177" hidden="1" customFormat="1" s="31">
       <c r="A177" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增7</t>
@@ -58897,7 +58899,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" customFormat="1" s="31">
+    <row r="178" hidden="1" customFormat="1" s="31">
       <c r="A178" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增8</t>
@@ -59229,7 +59231,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" customFormat="1" s="31">
+    <row r="179" hidden="1" customFormat="1" s="31">
       <c r="A179" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增9</t>
@@ -59561,7 +59563,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" customFormat="1" s="31">
+    <row r="180" hidden="1" customFormat="1" s="31">
       <c r="A180" s="32" t="inlineStr">
         <is>
           <t>客户发展部新增10</t>
@@ -59895,7 +59897,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" customFormat="1" s="31">
+    <row r="181" hidden="1" customFormat="1" s="31">
       <c r="A181" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增11</t>
@@ -60229,7 +60231,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" customFormat="1" s="31">
+    <row r="182" hidden="1" customFormat="1" s="31">
       <c r="A182" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增12</t>
@@ -60561,7 +60563,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" customFormat="1" s="39">
+    <row r="183" hidden="1" customFormat="1" s="39">
       <c r="A183" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增13</t>
@@ -60899,7 +60901,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" customFormat="1" s="39">
+    <row r="184" hidden="1" customFormat="1" s="39">
       <c r="A184" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增14</t>
@@ -61231,7 +61233,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" customFormat="1" s="31">
+    <row r="185" hidden="1" customFormat="1" s="31">
       <c r="A185" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增15</t>
@@ -61563,7 +61565,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" customFormat="1" s="31">
+    <row r="186" hidden="1" customFormat="1" s="31">
       <c r="A186" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增16</t>
@@ -61895,7 +61897,7 @@
         <v/>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="1" s="47">
       <c r="A187" s="24" t="n">
         <v>505</v>
       </c>
@@ -62217,7 +62219,7 @@
         <v/>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="1" s="47">
       <c r="A188" s="24" t="n">
         <v>506</v>
       </c>
@@ -62539,7 +62541,7 @@
         <v/>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="1" s="47">
       <c r="A189" s="28" t="n">
         <v>507</v>
       </c>
@@ -62863,7 +62865,7 @@
         <v/>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="1" s="47">
       <c r="A190" s="28" t="n">
         <v>508</v>
       </c>
@@ -63183,7 +63185,7 @@
         <v/>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="1" s="47">
       <c r="A191" s="28" t="n">
         <v>509</v>
       </c>
@@ -63513,7 +63515,7 @@
         <v/>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="1" s="47">
       <c r="A192" s="28" t="n">
         <v>510</v>
       </c>
@@ -63845,7 +63847,7 @@
         <v/>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="1" s="47">
       <c r="A193" s="24" t="n">
         <v>511</v>
       </c>
@@ -64311,6 +64313,13 @@
       <c r="AX200" s="35" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI193">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="宁波拓普集团股份有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>
@@ -64356,7 +64365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64382,7 +64391,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -64395,1415 +64404,455 @@
       <c r="A2" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>1083849-00-E</t>
         </is>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>2880</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F2" t="n">
         <v>7700006983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>1083849-00-E</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2720</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7700006983</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S/C/1096215-00-C/#/#</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1096215-00-C</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7700015506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>1083849-00-E</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2800</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>7700006983</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S/C/1108202-10-M/#/#</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1108202-00-M</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7700013617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S/C/1108202-10-M/#/#</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1108202-00-M</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1096215-00-C/#/#</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>1096215-00-C</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>16240</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7700015506</v>
+      <c r="E5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7700015582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1096215-00-C/#/#</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>1096215-00-C</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>18480</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>7700015506</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S/C/1108202-10-M/#/#</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1108202-01-M</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7700002394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1096215-00-C/#/#</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>1096215-00-C</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>13160</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>7700015506</v>
+        <v>17</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1455773-00-F</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1455773-00-F</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8384</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7700006983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-M</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>105000</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>7700013617</v>
+      <c r="E8" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7700002394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-M</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>105000</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>7700015582</v>
+      <c r="E9" t="n">
+        <v>1.2024</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7700011829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-M</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>94800</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>7700013617</v>
+        <v>26</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.4336</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7700010069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-M</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>94800</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>7700015582</v>
+        <v>29</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7700010069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-M</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>38400</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>7700013617</v>
+        <v>30</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7700015845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-M</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>38400</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>7700015582</v>
+        <v>35</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7700003372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-N</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>26400</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>7700013617</v>
+        <v>38</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1631640-00-A</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7700015506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>1108202-00-N</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>7700013617</v>
+        <v>41</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.8512</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7700015578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1108202-01-M</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>2880</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>7700002394</v>
+      <c r="E16" t="n">
+        <v>0.5387999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7700016103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>1108202-01-M</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>3840</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>7700002394</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7700016103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1108202-10-M/#/#</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>1108202-01-M</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1920</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.572</v>
+      </c>
+      <c r="F18" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>8384</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>7700006983</v>
+      <c r="E19" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7700016554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>6720</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>7700006983</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="48" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>6656</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>7700006983</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="48" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>8640</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="48" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>6840</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="48" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>4680</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="48" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>1540065-00-C</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>12024</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>7700011829</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="48" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>1540065-00-C</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>11664</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>7700011829</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="48" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>1540065-00-C</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>9360</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>7700011829</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="48" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A0-F</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>24336</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="48" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A0-F</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>20592</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="48" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A0-F</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>23400</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="48" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>37440</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>37440</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>7700015845</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="48" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>35568</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="48" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>35568</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>7700015845</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="48" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>41184</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="48" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>41184</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>7700015845</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="48" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2352</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>7700003372</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="48" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>3696</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>7700003372</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="48" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>7700003372</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="48" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1631640-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>1631640-00-A</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>20160</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>7700015506</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="48" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1631640-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>1631640-00-B</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>24864</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>7700015506</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="48" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1631640-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>1631640-00-B</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>13440</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>7700015506</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="48" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1657594-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>1657603-02-E</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>28512</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>7700015578</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="48" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1657594-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>1657603-02-E</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>11520</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>7700015578</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="48" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1657594-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>1657603-02-E</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>12096</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>7700015578</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="48" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>1693247-27-D</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>5388</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="48" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>1693247-27-D</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>3111</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>1693247-27-D</t>
-        </is>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>707</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>1693247-47-D</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>8138</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="48" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>1693247-47-D</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>4920</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="48" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>1693247-47-D</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>4570</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="48" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1716767-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>1716767-00-A</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>55720</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="48" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1716767-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>1716767-00-A</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>100800</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="48" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1716767-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>1716767-00-A</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>62440</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="48" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1739701-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>1739701-50-B</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>288</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="48" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1739701-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>1739701-50-B</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>372</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="48" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1739701-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>1739701-50-B</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>392</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="48" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>7488</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>7700013721</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="48" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>6552</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>7700013721</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="48" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>7488</v>
-      </c>
-      <c r="F60" s="0" t="n">
+      <c r="E20" t="n">
+        <v>0.7488</v>
+      </c>
+      <c r="F20" t="n">
         <v>7700013721</v>
       </c>
     </row>
@@ -65818,7 +64867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65844,7 +64893,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -65855,7 +64904,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -65868,10 +64917,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2880</v>
+        <v>0.272</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -65879,7 +64928,7 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -65892,10 +64941,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>16240</v>
+        <v>1.848</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -65903,7 +64952,7 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -65916,10 +64965,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>105000</v>
+        <v>9.48</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -65927,7 +64976,7 @@
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -65940,10 +64989,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>105000</v>
+        <v>9.48</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -65951,7 +65000,7 @@
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -65960,118 +65009,118 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1108202-00-N</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2880</v>
+        <v>2.64</v>
       </c>
       <c r="F6" t="n">
-        <v>7700002394</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>8384</v>
+        <v>0.384</v>
       </c>
       <c r="F7" t="n">
-        <v>7700006983</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>8640</v>
+        <v>0.672</v>
       </c>
       <c r="F8" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>12024</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>7700011829</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>24336</v>
+        <v>1.1664</v>
       </c>
       <c r="F10" t="n">
-        <v>7700010069</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -66080,14 +65129,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>37440</v>
+        <v>2.0592</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -66095,7 +65144,7 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -66108,114 +65157,114 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>37440</v>
+        <v>3.5568</v>
       </c>
       <c r="F12" t="n">
-        <v>7700015845</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>2352</v>
+        <v>3.5568</v>
       </c>
       <c r="F13" t="n">
-        <v>7700003372</v>
+        <v>7700015845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-A/#/#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1631640-00-A</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>20160</v>
+        <v>0.3696</v>
       </c>
       <c r="F14" t="n">
-        <v>7700015506</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1631640-00-B/#/#</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1631640-00-B</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>28512</v>
+        <v>2.4864</v>
       </c>
       <c r="F15" t="n">
-        <v>7700015578</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>5388</v>
+        <v>1.152</v>
       </c>
       <c r="F16" t="n">
-        <v>7700016103</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -66224,14 +65273,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>8138</v>
+        <v>0.3111</v>
       </c>
       <c r="F17" t="n">
         <v>7700016103</v>
@@ -66239,73 +65288,97 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>55720</v>
+        <v>0.492</v>
       </c>
       <c r="F18" t="n">
-        <v>7700002394</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>288</v>
+        <v>10.08</v>
       </c>
       <c r="F19" t="n">
-        <v>7700016554</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="48" t="n">
+        <v>57</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>1752119-03-B</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7488</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="F21" t="n">
         <v>7700013721</v>
       </c>
     </row>
@@ -66346,7 +65419,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -66357,7 +65430,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -66370,10 +65443,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2720</v>
+        <v>0.28</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -66381,7 +65454,7 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -66394,10 +65467,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>18480</v>
+        <v>1.316</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -66405,7 +65478,7 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -66418,10 +65491,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>94800</v>
+        <v>3.84</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -66429,7 +65502,7 @@
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -66442,10 +65515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>94800</v>
+        <v>3.84</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -66453,7 +65526,7 @@
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -66466,10 +65539,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>26400</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>7700013617</v>
@@ -66477,7 +65550,7 @@
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -66490,10 +65563,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>3840</v>
+        <v>0.192</v>
       </c>
       <c r="F7" t="n">
         <v>7700002394</v>
@@ -66501,7 +65574,7 @@
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -66514,10 +65587,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>6720</v>
+        <v>0.6656</v>
       </c>
       <c r="F8" t="n">
         <v>7700006983</v>
@@ -66525,7 +65598,7 @@
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -66538,10 +65611,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>6840</v>
+        <v>0.468</v>
       </c>
       <c r="F9" t="n">
         <v>7700002394</v>
@@ -66549,7 +65622,7 @@
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -66562,10 +65635,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>11664</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F10" t="n">
         <v>7700011829</v>
@@ -66573,7 +65646,7 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -66586,10 +65659,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>20592</v>
+        <v>2.34</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -66597,7 +65670,7 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -66610,10 +65683,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>35568</v>
+        <v>4.1184</v>
       </c>
       <c r="F12" t="n">
         <v>7700010069</v>
@@ -66621,7 +65694,7 @@
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -66634,10 +65707,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>35568</v>
+        <v>4.1184</v>
       </c>
       <c r="F13" t="n">
         <v>7700015845</v>
@@ -66645,7 +65718,7 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -66658,10 +65731,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>3696</v>
+        <v>0.2016</v>
       </c>
       <c r="F14" t="n">
         <v>7700003372</v>
@@ -66669,7 +65742,7 @@
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -66682,10 +65755,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>24864</v>
+        <v>1.344</v>
       </c>
       <c r="F15" t="n">
         <v>7700015506</v>
@@ -66693,7 +65766,7 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -66706,10 +65779,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>11520</v>
+        <v>1.2096</v>
       </c>
       <c r="F16" t="n">
         <v>7700015578</v>
@@ -66717,7 +65790,7 @@
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -66730,10 +65803,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>3111</v>
+        <v>0.0707</v>
       </c>
       <c r="F17" t="n">
         <v>7700016103</v>
@@ -66741,7 +65814,7 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -66754,10 +65827,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>4920</v>
+        <v>0.457</v>
       </c>
       <c r="F18" t="n">
         <v>7700016103</v>
@@ -66765,7 +65838,7 @@
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -66778,10 +65851,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>100800</v>
+        <v>6.244</v>
       </c>
       <c r="F19" t="n">
         <v>7700002394</v>
@@ -66789,7 +65862,7 @@
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -66802,10 +65875,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>372</v>
+        <v>0.0392</v>
       </c>
       <c r="F20" t="n">
         <v>7700016554</v>
@@ -66813,7 +65886,7 @@
     </row>
     <row r="21">
       <c r="A21" s="48" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -66826,10 +65899,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>6552</v>
+        <v>0.7488</v>
       </c>
       <c r="F21" t="n">
         <v>7700013721</v>
@@ -66846,7 +65919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66872,7 +65945,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -66883,7 +65956,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -66896,10 +65969,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2800</v>
+        <v>0.288</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -66907,457 +65980,1393 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S/C/1096215-00-C/#/#</t>
+          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1096215-00-C</t>
+          <t>1083849-00-E</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>13160</v>
+        <v>0.272</v>
       </c>
       <c r="F3" t="n">
-        <v>7700015506</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1083849-00-E</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>38400</v>
+        <v>0.28</v>
       </c>
       <c r="F4" t="n">
-        <v>7700013617</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>38400</v>
+        <v>1.624</v>
       </c>
       <c r="F5" t="n">
-        <v>7700015582</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>90000</v>
+        <v>1.848</v>
       </c>
       <c r="F6" t="n">
-        <v>7700013617</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1920</v>
+        <v>1.316</v>
       </c>
       <c r="F7" t="n">
-        <v>7700002394</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>6656</v>
+        <v>10.5</v>
       </c>
       <c r="F8" t="n">
-        <v>7700006983</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>4680</v>
+        <v>10.5</v>
       </c>
       <c r="F9" t="n">
-        <v>7700002394</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>9360</v>
+        <v>9.48</v>
       </c>
       <c r="F10" t="n">
-        <v>7700011829</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>23400</v>
+        <v>9.48</v>
       </c>
       <c r="F11" t="n">
-        <v>7700010069</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>41184</v>
+        <v>3.84</v>
       </c>
       <c r="F12" t="n">
-        <v>7700010069</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>41184</v>
+        <v>3.84</v>
       </c>
       <c r="F13" t="n">
-        <v>7700015845</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1108202-00-N</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>2016</v>
+        <v>2.64</v>
       </c>
       <c r="F14" t="n">
-        <v>7700003372</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-B/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1631640-00-B</t>
+          <t>1108202-00-N</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>13440</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>7700015506</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>12096</v>
+        <v>0.288</v>
       </c>
       <c r="F16" t="n">
-        <v>7700015578</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>707</v>
+        <v>0.384</v>
       </c>
       <c r="F17" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>4570</v>
+        <v>0.192</v>
       </c>
       <c r="F18" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>62440</v>
+        <v>0.8384</v>
       </c>
       <c r="F19" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>392</v>
+        <v>0.672</v>
       </c>
       <c r="F20" t="n">
-        <v>7700016554</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1752119-03-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>7488</v>
+        <v>0.6656</v>
       </c>
       <c r="F21" t="n">
+        <v>7700006983</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="48" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="48" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="48" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.2024</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7700011829</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="48" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.1664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7700011829</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="48" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7700011829</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="48" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.4336</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="48" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.0592</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="48" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="48" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="48" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7700015845</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="48" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.5568</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="48" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.5568</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7700015845</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="48" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.1184</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="48" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.1184</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7700015845</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7700003372</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="48" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3696</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7700003372</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7700003372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1631640-00-A</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7700015506</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="48" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1631640-00-B</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.4864</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7700015506</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="48" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1631640-00-B</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7700015506</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="48" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.8512</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7700015578</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="48" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7700015578</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="48" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.2096</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7700015578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="48" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5387999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="48" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3111</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="48" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="48" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.572</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="48" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="48" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.244</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="48" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="48" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="48" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="48" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7488</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7700013721</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="48" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7700013721</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="48" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7488</v>
+      </c>
+      <c r="F60" t="n">
         <v>7700013721</v>
       </c>
     </row>

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -64376,7 +64376,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -64466,7 +64466,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -64490,7 +64490,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -64634,7 +64634,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -64658,7 +64658,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F12" t="n">
         <v>7700015845</v>
@@ -64878,7 +64878,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -64968,7 +64968,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -64992,7 +64992,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -65160,7 +65160,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F12" t="n">
         <v>7700010069</v>
@@ -65184,7 +65184,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F13" t="n">
         <v>7700015845</v>
@@ -65404,7 +65404,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -65494,7 +65494,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -65518,7 +65518,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -65686,7 +65686,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F12" t="n">
         <v>7700010069</v>
@@ -65710,7 +65710,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F13" t="n">
         <v>7700015845</v>
@@ -65930,7 +65930,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -66116,7 +66116,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>7700013617</v>
@@ -66140,7 +66140,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>7700015582</v>
@@ -66164,7 +66164,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F10" t="n">
         <v>7700013617</v>
@@ -66188,7 +66188,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F11" t="n">
         <v>7700015582</v>
@@ -66212,7 +66212,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F12" t="n">
         <v>7700013617</v>
@@ -66236,7 +66236,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F13" t="n">
         <v>7700015582</v>
@@ -66668,7 +66668,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F31" t="n">
         <v>7700010069</v>
@@ -66692,7 +66692,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F32" t="n">
         <v>7700015845</v>
@@ -66716,7 +66716,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F33" t="n">
         <v>7700010069</v>
@@ -66740,7 +66740,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F34" t="n">
         <v>7700015845</v>
@@ -66764,7 +66764,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F35" t="n">
         <v>7700010069</v>
@@ -66788,7 +66788,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F36" t="n">
         <v>7700015845</v>

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3560" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,12 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_总" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -30,7 +25,7 @@
     <numFmt numFmtId="166" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -54,13 +49,6 @@
       <b val="1"/>
       <color theme="8" tint="-0.249977111117893"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="微软雅黑"/>
@@ -116,19 +104,10 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -190,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,6 +193,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -227,99 +221,111 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -331,64 +337,55 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -555,21 +552,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="计划汇率"/>
-      <sheetName val="下拉菜单"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,13 +817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
@@ -899,7 +881,8 @@
     <col width="11.1640625" customWidth="1" style="34" min="74" max="75"/>
     <col width="17.1640625" bestFit="1" customWidth="1" style="34" min="76" max="76"/>
     <col width="17.1640625" bestFit="1" customWidth="1" style="27" min="77" max="87"/>
-    <col width="8.83203125" customWidth="1" style="27" min="88" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="27" min="88" max="88"/>
+    <col width="8.83203125" customWidth="1" style="27" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.5" customFormat="1" customHeight="1" s="18">
@@ -1343,7 +1326,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" ht="42.5" customHeight="1" s="47">
+    <row r="2" ht="42.5" customHeight="1" s="48">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index No.(Do NOT delete or alter)</t>
@@ -1783,7 +1766,7 @@
         </is>
       </c>
     </row>
-    <row r="3" hidden="1" s="47">
+    <row r="3">
       <c r="A3" s="24" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2086,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" hidden="1" s="47">
+    <row r="4">
       <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
@@ -2429,7 +2412,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" hidden="1" s="47">
+    <row r="5">
       <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
@@ -2765,7 +2748,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" hidden="1" s="47">
+    <row r="6">
       <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
@@ -3099,7 +3082,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" hidden="1" s="47">
+    <row r="7">
       <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
@@ -3433,7 +3416,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" hidden="1" s="47">
+    <row r="8">
       <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
@@ -3771,7 +3754,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" hidden="1" s="47">
+    <row r="9">
       <c r="A9" s="28" t="n">
         <v>7</v>
       </c>
@@ -4113,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" hidden="1" s="47">
+    <row r="10">
       <c r="A10" s="28" t="n">
         <v>8</v>
       </c>
@@ -4455,7 +4438,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" hidden="1" s="47">
+    <row r="11">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增1</t>
@@ -4795,7 +4778,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" hidden="1" s="47">
+    <row r="12">
       <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
@@ -5135,7 +5118,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" hidden="1" s="47">
+    <row r="13">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增2</t>
@@ -5473,7 +5456,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" hidden="1" s="47">
+    <row r="14">
       <c r="A14" s="24" t="n">
         <v>10</v>
       </c>
@@ -5813,7 +5796,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" hidden="1" customFormat="1" s="38">
+    <row r="15" customFormat="1" s="38">
       <c r="A15" s="24" t="n">
         <v>11</v>
       </c>
@@ -6145,7 +6128,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" hidden="1" s="47">
+    <row r="16">
       <c r="A16" s="24" t="n">
         <v>12</v>
       </c>
@@ -6475,7 +6458,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" hidden="1" s="47">
+    <row r="17">
       <c r="A17" s="24" t="n">
         <v>13</v>
       </c>
@@ -6797,7 +6780,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" hidden="1" customFormat="1" s="38">
+    <row r="18" customFormat="1" s="38">
       <c r="A18" s="24" t="n">
         <v>14</v>
       </c>
@@ -7121,7 +7104,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" hidden="1" s="47">
+    <row r="19">
       <c r="A19" s="24" t="n">
         <v>15</v>
       </c>
@@ -7441,7 +7424,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" hidden="1" s="47">
+    <row r="20">
       <c r="A20" s="24" t="n">
         <v>16</v>
       </c>
@@ -7761,7 +7744,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" hidden="1" s="47">
+    <row r="21">
       <c r="A21" s="24" t="n">
         <v>17</v>
       </c>
@@ -8081,7 +8064,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" hidden="1" s="47">
+    <row r="22">
       <c r="A22" s="24" t="n">
         <v>18</v>
       </c>
@@ -13175,7 +13158,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" hidden="1" s="47">
+    <row r="37">
       <c r="A37" s="24" t="n">
         <v>33</v>
       </c>
@@ -13499,7 +13482,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" hidden="1" s="47">
+    <row r="38">
       <c r="A38" s="24" t="n">
         <v>34</v>
       </c>
@@ -13835,7 +13818,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" hidden="1" customFormat="1" s="38">
+    <row r="39" customFormat="1" s="38">
       <c r="A39" s="24" t="n">
         <v>35</v>
       </c>
@@ -14175,7 +14158,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" hidden="1" customFormat="1" s="38">
+    <row r="40" customFormat="1" s="38">
       <c r="A40" s="24" t="n">
         <v>36</v>
       </c>
@@ -14515,7 +14498,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" hidden="1" customFormat="1" s="38">
+    <row r="41" customFormat="1" s="38">
       <c r="A41" s="28" t="n">
         <v>37</v>
       </c>
@@ -14857,7 +14840,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" hidden="1" s="47">
+    <row r="42">
       <c r="A42" s="24" t="n">
         <v>38</v>
       </c>
@@ -15181,7 +15164,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" hidden="1" s="47">
+    <row r="43">
       <c r="A43" s="24" t="n">
         <v>39</v>
       </c>
@@ -15505,7 +15488,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" hidden="1" customFormat="1" s="38">
+    <row r="44" customFormat="1" s="38">
       <c r="A44" s="28" t="n">
         <v>40</v>
       </c>
@@ -15833,7 +15816,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" hidden="1" s="47">
+    <row r="45">
       <c r="A45" s="28" t="n">
         <v>41</v>
       </c>
@@ -16159,7 +16142,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" hidden="1" s="47">
+    <row r="46">
       <c r="A46" s="24" t="n">
         <v>42</v>
       </c>
@@ -16483,7 +16466,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" hidden="1" s="47">
+    <row r="47">
       <c r="A47" s="24" t="n">
         <v>43</v>
       </c>
@@ -16807,7 +16790,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" hidden="1" s="47">
+    <row r="48">
       <c r="A48" s="24" t="n">
         <v>44</v>
       </c>
@@ -17131,7 +17114,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" hidden="1" customFormat="1" s="38">
+    <row r="49" customFormat="1" s="38">
       <c r="A49" s="28" t="n">
         <v>45</v>
       </c>
@@ -17473,7 +17456,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" hidden="1" s="47">
+    <row r="50">
       <c r="A50" s="24" t="n">
         <v>46</v>
       </c>
@@ -17797,7 +17780,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" hidden="1" customFormat="1" s="38">
+    <row r="51" customFormat="1" s="38">
       <c r="A51" s="28" t="n">
         <v>47</v>
       </c>
@@ -18125,7 +18108,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" hidden="1" s="47">
+    <row r="52">
       <c r="A52" s="24" t="n">
         <v>48</v>
       </c>
@@ -18449,7 +18432,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" hidden="1" s="47">
+    <row r="53">
       <c r="A53" s="24" t="n">
         <v>49</v>
       </c>
@@ -18769,7 +18752,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" hidden="1" s="47">
+    <row r="54">
       <c r="A54" s="24" t="n">
         <v>50</v>
       </c>
@@ -19087,7 +19070,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" hidden="1" s="47">
+    <row r="55">
       <c r="A55" s="24" t="n">
         <v>51</v>
       </c>
@@ -19405,7 +19388,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" hidden="1" s="47">
+    <row r="56">
       <c r="A56" s="24" t="n">
         <v>52</v>
       </c>
@@ -19723,7 +19706,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" hidden="1" s="47">
+    <row r="57">
       <c r="A57" s="24" t="n">
         <v>53</v>
       </c>
@@ -20043,7 +20026,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" hidden="1" s="47">
+    <row r="58">
       <c r="A58" s="24" t="n">
         <v>54</v>
       </c>
@@ -20363,7 +20346,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" hidden="1" s="47">
+    <row r="59">
       <c r="A59" s="24" t="n">
         <v>55</v>
       </c>
@@ -20683,7 +20666,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" hidden="1" s="47">
+    <row r="60">
       <c r="A60" s="24" t="n">
         <v>56</v>
       </c>
@@ -21003,7 +20986,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" hidden="1" s="47">
+    <row r="61">
       <c r="A61" s="24" t="n">
         <v>57</v>
       </c>
@@ -21323,7 +21306,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" hidden="1" s="47">
+    <row r="62">
       <c r="A62" s="24" t="n">
         <v>58</v>
       </c>
@@ -21657,7 +21640,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" hidden="1" s="47">
+    <row r="63">
       <c r="A63" s="24" t="n">
         <v>59</v>
       </c>
@@ -21991,7 +21974,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" hidden="1" s="47">
+    <row r="64">
       <c r="A64" s="24" t="n">
         <v>60</v>
       </c>
@@ -22325,7 +22308,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" hidden="1" s="47">
+    <row r="65">
       <c r="A65" s="24" t="n">
         <v>61</v>
       </c>
@@ -22663,7 +22646,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" hidden="1" s="47">
+    <row r="66">
       <c r="A66" s="24" t="n">
         <v>62</v>
       </c>
@@ -22997,7 +22980,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" hidden="1" s="47">
+    <row r="67">
       <c r="A67" s="24" t="n">
         <v>63</v>
       </c>
@@ -23329,7 +23312,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" hidden="1" s="47">
+    <row r="68">
       <c r="A68" s="24" t="n">
         <v>64</v>
       </c>
@@ -23651,7 +23634,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" hidden="1" s="47">
+    <row r="69">
       <c r="A69" s="24" t="n">
         <v>65</v>
       </c>
@@ -23973,7 +23956,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" hidden="1" s="47">
+    <row r="70">
       <c r="A70" s="24" t="n">
         <v>66</v>
       </c>
@@ -24311,7 +24294,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" hidden="1" s="47">
+    <row r="71">
       <c r="A71" s="24" t="n">
         <v>67</v>
       </c>
@@ -24645,7 +24628,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" hidden="1" s="47">
+    <row r="72">
       <c r="A72" s="24" t="n">
         <v>68</v>
       </c>
@@ -24967,7 +24950,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" hidden="1" s="47">
+    <row r="73">
       <c r="A73" s="24" t="n">
         <v>69</v>
       </c>
@@ -25299,7 +25282,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" hidden="1" s="47">
+    <row r="74">
       <c r="A74" s="24" t="n">
         <v>70</v>
       </c>
@@ -25621,7 +25604,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" hidden="1" s="47">
+    <row r="75">
       <c r="A75" s="24" t="n">
         <v>71</v>
       </c>
@@ -25941,7 +25924,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" hidden="1" s="47">
+    <row r="76">
       <c r="A76" s="24" t="n">
         <v>72</v>
       </c>
@@ -26263,7 +26246,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" hidden="1" customFormat="1" s="31">
+    <row r="77" customFormat="1" s="31">
       <c r="A77" s="29" t="n">
         <v>73</v>
       </c>
@@ -26601,7 +26584,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" hidden="1" s="47">
+    <row r="78">
       <c r="A78" s="24" t="n">
         <v>74</v>
       </c>
@@ -26935,7 +26918,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" hidden="1" s="47">
+    <row r="79">
       <c r="A79" s="24" t="n">
         <v>75</v>
       </c>
@@ -27257,7 +27240,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" hidden="1" s="47">
+    <row r="80">
       <c r="A80" s="24" t="n">
         <v>76</v>
       </c>
@@ -27579,7 +27562,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" hidden="1" s="47">
+    <row r="81">
       <c r="A81" s="24" t="n">
         <v>77</v>
       </c>
@@ -27913,7 +27896,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" hidden="1" s="47">
+    <row r="82">
       <c r="A82" s="24" t="n">
         <v>78</v>
       </c>
@@ -28243,7 +28226,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" hidden="1" s="47">
+    <row r="83">
       <c r="A83" s="24" t="n">
         <v>79</v>
       </c>
@@ -28565,7 +28548,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" hidden="1" s="47">
+    <row r="84">
       <c r="A84" s="24" t="n">
         <v>80</v>
       </c>
@@ -28885,7 +28868,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" hidden="1" s="47">
+    <row r="85">
       <c r="A85" s="28" t="n">
         <v>81</v>
       </c>
@@ -29209,7 +29192,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" hidden="1" s="47">
+    <row r="86">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增</t>
@@ -29535,7 +29518,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" hidden="1" s="47">
+    <row r="87">
       <c r="A87" s="24" t="n">
         <v>82</v>
       </c>
@@ -29857,7 +29840,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" hidden="1" s="47">
+    <row r="88">
       <c r="A88" s="24" t="n">
         <v>83</v>
       </c>
@@ -30179,7 +30162,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" hidden="1" s="47">
+    <row r="89">
       <c r="A89" s="24" t="n">
         <v>84</v>
       </c>
@@ -30501,7 +30484,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" hidden="1" s="47">
+    <row r="90">
       <c r="A90" s="24" t="n">
         <v>85</v>
       </c>
@@ -30823,7 +30806,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" hidden="1" s="47">
+    <row r="91">
       <c r="A91" s="24" t="n">
         <v>86</v>
       </c>
@@ -31145,7 +31128,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" hidden="1" s="47">
+    <row r="92">
       <c r="A92" s="24" t="n">
         <v>87</v>
       </c>
@@ -31467,7 +31450,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" hidden="1" s="47">
+    <row r="93">
       <c r="A93" s="24" t="n">
         <v>88</v>
       </c>
@@ -31789,7 +31772,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" hidden="1" s="47">
+    <row r="94">
       <c r="A94" s="24" t="n">
         <v>89</v>
       </c>
@@ -32115,7 +32098,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" hidden="1" s="47">
+    <row r="95">
       <c r="A95" s="24" t="n">
         <v>90</v>
       </c>
@@ -32449,7 +32432,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" hidden="1" s="47">
+    <row r="96">
       <c r="A96" s="24" t="n">
         <v>91</v>
       </c>
@@ -32771,7 +32754,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" hidden="1" s="47">
+    <row r="97">
       <c r="A97" s="24" t="n">
         <v>92</v>
       </c>
@@ -33091,7 +33074,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" hidden="1" s="47">
+    <row r="98">
       <c r="A98" s="24" t="n">
         <v>93</v>
       </c>
@@ -33415,7 +33398,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" hidden="1" s="47">
+    <row r="99">
       <c r="A99" s="24" t="n">
         <v>94</v>
       </c>
@@ -33737,7 +33720,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" hidden="1" s="47">
+    <row r="100">
       <c r="A100" s="24" t="n">
         <v>95</v>
       </c>
@@ -34059,7 +34042,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" hidden="1" s="47">
+    <row r="101">
       <c r="A101" s="24" t="n">
         <v>96</v>
       </c>
@@ -34381,7 +34364,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" hidden="1" s="47">
+    <row r="102">
       <c r="A102" s="24" t="n">
         <v>97</v>
       </c>
@@ -34699,7 +34682,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" hidden="1" s="47">
+    <row r="103">
       <c r="A103" s="24" t="n">
         <v>98</v>
       </c>
@@ -35019,7 +35002,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" hidden="1" customFormat="1" s="38">
+    <row r="104" customFormat="1" s="38">
       <c r="A104" s="36" t="n">
         <v>99</v>
       </c>
@@ -35355,7 +35338,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" hidden="1" s="47">
+    <row r="105">
       <c r="A105" s="24" t="n">
         <v>100</v>
       </c>
@@ -35675,7 +35658,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" hidden="1" s="47">
+    <row r="106">
       <c r="A106" s="24" t="n">
         <v>101</v>
       </c>
@@ -35997,7 +35980,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" hidden="1" s="47">
+    <row r="107">
       <c r="A107" s="24" t="n">
         <v>102</v>
       </c>
@@ -36317,7 +36300,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" hidden="1" s="47">
+    <row r="108">
       <c r="A108" s="24" t="n">
         <v>103</v>
       </c>
@@ -36649,7 +36632,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" hidden="1" s="47">
+    <row r="109">
       <c r="A109" s="28" t="n">
         <v>104</v>
       </c>
@@ -36983,7 +36966,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" hidden="1" s="47">
+    <row r="110">
       <c r="A110" s="24" t="n">
         <v>105</v>
       </c>
@@ -37303,7 +37286,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" hidden="1" s="47">
+    <row r="111">
       <c r="A111" s="24" t="n">
         <v>106</v>
       </c>
@@ -37623,7 +37606,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" hidden="1" customFormat="1" s="38">
+    <row r="112" customFormat="1" s="38">
       <c r="A112" s="36" t="n">
         <v>107</v>
       </c>
@@ -37955,7 +37938,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" hidden="1" s="47">
+    <row r="113">
       <c r="A113" s="24" t="n">
         <v>108</v>
       </c>
@@ -38275,7 +38258,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" hidden="1" s="47">
+    <row r="114">
       <c r="A114" s="24" t="n">
         <v>109</v>
       </c>
@@ -38597,7 +38580,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" hidden="1" customFormat="1" s="38">
+    <row r="115" customFormat="1" s="38">
       <c r="A115" s="36" t="n">
         <v>110</v>
       </c>
@@ -38917,7 +38900,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" hidden="1" s="47">
+    <row r="116">
       <c r="A116" s="24" t="n">
         <v>111</v>
       </c>
@@ -39237,7 +39220,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" hidden="1" customFormat="1" s="38">
+    <row r="117" customFormat="1" s="38">
       <c r="A117" s="36" t="n">
         <v>112</v>
       </c>
@@ -39569,7 +39552,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" hidden="1" s="47">
+    <row r="118">
       <c r="A118" s="24" t="n">
         <v>113</v>
       </c>
@@ -39891,7 +39874,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" hidden="1" s="47">
+    <row r="119">
       <c r="A119" s="24" t="n">
         <v>114</v>
       </c>
@@ -40213,7 +40196,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" hidden="1" s="47">
+    <row r="120">
       <c r="A120" s="24" t="n">
         <v>115</v>
       </c>
@@ -40535,7 +40518,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" hidden="1" s="47">
+    <row r="121">
       <c r="A121" s="24" t="n">
         <v>116</v>
       </c>
@@ -40855,7 +40838,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" hidden="1" s="47">
+    <row r="122">
       <c r="A122" s="24" t="n">
         <v>117</v>
       </c>
@@ -41177,7 +41160,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" hidden="1" s="47">
+    <row r="123">
       <c r="A123" s="24" t="n">
         <v>118</v>
       </c>
@@ -41499,7 +41482,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" hidden="1" s="47">
+    <row r="124">
       <c r="A124" s="24" t="n">
         <v>119</v>
       </c>
@@ -41819,7 +41802,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" hidden="1" customFormat="1" s="38">
+    <row r="125" customFormat="1" s="38">
       <c r="A125" s="36" t="n">
         <v>120</v>
       </c>
@@ -42143,7 +42126,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" hidden="1" customFormat="1" s="38">
+    <row r="126" customFormat="1" s="38">
       <c r="A126" s="36" t="n">
         <v>121</v>
       </c>
@@ -42463,7 +42446,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" hidden="1" s="47">
+    <row r="127">
       <c r="A127" s="24" t="n">
         <v>122</v>
       </c>
@@ -42783,7 +42766,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" hidden="1" s="47">
+    <row r="128">
       <c r="A128" s="24" t="n">
         <v>123</v>
       </c>
@@ -43103,7 +43086,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" hidden="1" s="47">
+    <row r="129">
       <c r="A129" s="24" t="n">
         <v>124</v>
       </c>
@@ -43421,7 +43404,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" hidden="1" customFormat="1" s="38">
+    <row r="130" customFormat="1" s="38">
       <c r="A130" s="36" t="n">
         <v>125</v>
       </c>
@@ -43741,7 +43724,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" hidden="1" s="47">
+    <row r="131">
       <c r="A131" s="24" t="n">
         <v>126</v>
       </c>
@@ -44065,7 +44048,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" hidden="1" s="47">
+    <row r="132">
       <c r="A132" s="24" t="n">
         <v>127</v>
       </c>
@@ -44385,7 +44368,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" hidden="1" s="47">
+    <row r="133">
       <c r="A133" s="24" t="n">
         <v>128</v>
       </c>
@@ -44705,7 +44688,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" hidden="1" s="47">
+    <row r="134">
       <c r="A134" s="24" t="n">
         <v>129</v>
       </c>
@@ -45025,7 +45008,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" hidden="1" s="47">
+    <row r="135">
       <c r="A135" s="24" t="n">
         <v>130</v>
       </c>
@@ -45345,7 +45328,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" hidden="1" s="47">
+    <row r="136">
       <c r="A136" s="24" t="n">
         <v>131</v>
       </c>
@@ -45663,7 +45646,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" hidden="1" s="47">
+    <row r="137">
       <c r="A137" s="24" t="n">
         <v>132</v>
       </c>
@@ -45991,7 +45974,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" hidden="1" s="47">
+    <row r="138">
       <c r="A138" s="24" t="n">
         <v>133</v>
       </c>
@@ -46315,7 +46298,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" hidden="1" s="47">
+    <row r="139">
       <c r="A139" s="24" t="n">
         <v>134</v>
       </c>
@@ -46635,7 +46618,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" hidden="1" s="47">
+    <row r="140">
       <c r="A140" s="24" t="n">
         <v>135</v>
       </c>
@@ -46955,7 +46938,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" hidden="1" s="47">
+    <row r="141">
       <c r="A141" s="24" t="n">
         <v>136</v>
       </c>
@@ -47279,7 +47262,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" hidden="1" s="47">
+    <row r="142">
       <c r="A142" s="24" t="n">
         <v>137</v>
       </c>
@@ -47599,7 +47582,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" hidden="1" s="47">
+    <row r="143">
       <c r="A143" s="24" t="n">
         <v>138</v>
       </c>
@@ -47923,7 +47906,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" hidden="1" s="47">
+    <row r="144">
       <c r="A144" s="24" t="n">
         <v>139</v>
       </c>
@@ -48243,7 +48226,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" hidden="1" customFormat="1" s="38">
+    <row r="145" customFormat="1" s="38">
       <c r="A145" s="36" t="n">
         <v>140</v>
       </c>
@@ -48563,7 +48546,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" hidden="1" s="47">
+    <row r="146">
       <c r="A146" s="24" t="n">
         <v>141</v>
       </c>
@@ -48883,7 +48866,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" hidden="1" s="47">
+    <row r="147">
       <c r="A147" s="24" t="n">
         <v>142</v>
       </c>
@@ -49211,7 +49194,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" hidden="1" s="47">
+    <row r="148">
       <c r="A148" s="24" t="n">
         <v>143</v>
       </c>
@@ -49531,7 +49514,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" hidden="1" s="47">
+    <row r="149">
       <c r="A149" s="24" t="n">
         <v>144</v>
       </c>
@@ -49851,7 +49834,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" hidden="1" s="47">
+    <row r="150">
       <c r="A150" s="24" t="n">
         <v>145</v>
       </c>
@@ -50171,7 +50154,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" hidden="1" s="47">
+    <row r="151">
       <c r="A151" s="24" t="n">
         <v>146</v>
       </c>
@@ -50491,7 +50474,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" hidden="1" s="47">
+    <row r="152">
       <c r="A152" s="24" t="n">
         <v>147</v>
       </c>
@@ -50811,7 +50794,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" hidden="1" s="47">
+    <row r="153">
       <c r="A153" s="24" t="n">
         <v>148</v>
       </c>
@@ -51131,7 +51114,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" hidden="1" s="47">
+    <row r="154">
       <c r="A154" s="24" t="n">
         <v>149</v>
       </c>
@@ -51451,7 +51434,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" hidden="1" s="47">
+    <row r="155">
       <c r="A155" s="24" t="n">
         <v>150</v>
       </c>
@@ -51771,7 +51754,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" hidden="1" s="47">
+    <row r="156">
       <c r="A156" s="24" t="n">
         <v>151</v>
       </c>
@@ -52089,7 +52072,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" hidden="1" s="47">
+    <row r="157">
       <c r="A157" s="24" t="n">
         <v>152</v>
       </c>
@@ -52407,7 +52390,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" hidden="1" s="47">
+    <row r="158">
       <c r="A158" s="24" t="n">
         <v>153</v>
       </c>
@@ -52725,7 +52708,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" hidden="1" s="47">
+    <row r="159">
       <c r="A159" s="24" t="n">
         <v>154</v>
       </c>
@@ -53043,7 +53026,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" hidden="1" s="47">
+    <row r="160">
       <c r="A160" s="24" t="n">
         <v>155</v>
       </c>
@@ -53361,7 +53344,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" hidden="1" s="47">
+    <row r="161">
       <c r="A161" s="24" t="n">
         <v>156</v>
       </c>
@@ -53679,7 +53662,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" hidden="1" s="47">
+    <row r="162">
       <c r="A162" s="24" t="n">
         <v>157</v>
       </c>
@@ -53997,7 +53980,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" hidden="1" s="47">
+    <row r="163">
       <c r="A163" s="24" t="n">
         <v>158</v>
       </c>
@@ -54315,7 +54298,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" hidden="1" s="47">
+    <row r="164">
       <c r="A164" s="24" t="n">
         <v>159</v>
       </c>
@@ -54633,7 +54616,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" hidden="1" s="47">
+    <row r="165">
       <c r="A165" s="24" t="n">
         <v>160</v>
       </c>
@@ -54951,7 +54934,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" hidden="1" s="47">
+    <row r="166">
       <c r="A166" s="24" t="n">
         <v>161</v>
       </c>
@@ -55269,7 +55252,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" hidden="1" s="47">
+    <row r="167">
       <c r="A167" s="24" t="n">
         <v>162</v>
       </c>
@@ -55587,7 +55570,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" hidden="1" s="47">
+    <row r="168">
       <c r="A168" s="24" t="n">
         <v>163</v>
       </c>
@@ -55905,7 +55888,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" hidden="1" s="47">
+    <row r="169">
       <c r="A169" s="24" t="n">
         <v>164</v>
       </c>
@@ -56227,7 +56210,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" hidden="1" s="47">
+    <row r="170">
       <c r="A170" s="24" t="n">
         <v>165</v>
       </c>
@@ -56557,7 +56540,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" hidden="1" s="47">
+    <row r="171">
       <c r="A171" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增1</t>
@@ -56891,7 +56874,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" hidden="1" s="47">
+    <row r="172">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>客户发展部新增2</t>
@@ -57229,7 +57212,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" hidden="1" customFormat="1" s="31">
+    <row r="173" customFormat="1" s="31">
       <c r="A173" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增3</t>
@@ -57565,7 +57548,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" hidden="1" customFormat="1" s="31">
+    <row r="174" customFormat="1" s="31">
       <c r="A174" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增4</t>
@@ -57899,7 +57882,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" hidden="1" customFormat="1" s="31">
+    <row r="175" customFormat="1" s="31">
       <c r="A175" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增5</t>
@@ -58233,7 +58216,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" hidden="1" customFormat="1" s="31">
+    <row r="176" customFormat="1" s="31">
       <c r="A176" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增6</t>
@@ -58567,7 +58550,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" hidden="1" customFormat="1" s="31">
+    <row r="177" customFormat="1" s="31">
       <c r="A177" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增7</t>
@@ -58899,7 +58882,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" hidden="1" customFormat="1" s="31">
+    <row r="178" customFormat="1" s="31">
       <c r="A178" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增8</t>
@@ -59231,7 +59214,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" hidden="1" customFormat="1" s="31">
+    <row r="179" customFormat="1" s="31">
       <c r="A179" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增9</t>
@@ -59563,7 +59546,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" hidden="1" customFormat="1" s="31">
+    <row r="180" customFormat="1" s="31">
       <c r="A180" s="32" t="inlineStr">
         <is>
           <t>客户发展部新增10</t>
@@ -59897,7 +59880,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" hidden="1" customFormat="1" s="31">
+    <row r="181" customFormat="1" s="31">
       <c r="A181" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增11</t>
@@ -60231,7 +60214,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" hidden="1" customFormat="1" s="31">
+    <row r="182" customFormat="1" s="31">
       <c r="A182" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增12</t>
@@ -60563,7 +60546,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" hidden="1" customFormat="1" s="39">
+    <row r="183" customFormat="1" s="39">
       <c r="A183" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增13</t>
@@ -60901,7 +60884,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" hidden="1" customFormat="1" s="39">
+    <row r="184" customFormat="1" s="39">
       <c r="A184" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增14</t>
@@ -61233,7 +61216,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" hidden="1" customFormat="1" s="31">
+    <row r="185" customFormat="1" s="31">
       <c r="A185" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增15</t>
@@ -61565,7 +61548,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" hidden="1" customFormat="1" s="31">
+    <row r="186" customFormat="1" s="31">
       <c r="A186" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增16</t>
@@ -61897,7 +61880,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" hidden="1" s="47">
+    <row r="187">
       <c r="A187" s="24" t="n">
         <v>505</v>
       </c>
@@ -62219,7 +62202,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" hidden="1" s="47">
+    <row r="188">
       <c r="A188" s="24" t="n">
         <v>506</v>
       </c>
@@ -62541,7 +62524,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" hidden="1" s="47">
+    <row r="189">
       <c r="A189" s="28" t="n">
         <v>507</v>
       </c>
@@ -62865,7 +62848,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" hidden="1" s="47">
+    <row r="190">
       <c r="A190" s="28" t="n">
         <v>508</v>
       </c>
@@ -63185,7 +63168,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" hidden="1" s="47">
+    <row r="191">
       <c r="A191" s="28" t="n">
         <v>509</v>
       </c>
@@ -63515,7 +63498,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" hidden="1" s="47">
+    <row r="192">
       <c r="A192" s="28" t="n">
         <v>510</v>
       </c>
@@ -63847,7 +63830,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" hidden="1" s="47">
+    <row r="193">
       <c r="A193" s="24" t="n">
         <v>511</v>
       </c>
@@ -64313,13 +64296,6 @@
       <c r="AX200" s="35" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CI193">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="宁波拓普集团股份有限公司"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>
@@ -64374,34 +64350,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
-        <is>
-          <t>summp</t>
-        </is>
-      </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -64425,7 +64401,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -64449,7 +64425,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -64473,7 +64449,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -64497,7 +64473,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -64521,7 +64497,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -64538,14 +64514,14 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8384</v>
+        <v>0.8383999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>7700006983</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -64569,7 +64545,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -64593,7 +64569,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -64617,7 +64593,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -64641,7 +64617,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -64665,7 +64641,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -64689,7 +64665,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>38</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -64713,7 +64689,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -64737,7 +64713,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -64761,7 +64737,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -64785,7 +64761,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>50</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -64809,7 +64785,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -64833,7 +64809,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>56</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -64876,34 +64852,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
-        <is>
-          <t>summp</t>
-        </is>
-      </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -64927,7 +64903,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -64951,7 +64927,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -64975,7 +64951,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -64999,7 +64975,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -65023,7 +64999,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -65047,7 +65023,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -65064,14 +65040,14 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.672</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>7700006983</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -65088,14 +65064,14 @@
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6839999999999999</v>
       </c>
       <c r="F9" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -65119,7 +65095,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -65143,7 +65119,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -65167,7 +65143,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>32</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -65191,7 +65167,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -65215,7 +65191,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -65239,7 +65215,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -65263,7 +65239,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>45</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -65287,7 +65263,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>48</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -65311,7 +65287,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -65335,7 +65311,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -65359,7 +65335,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48" t="n">
+      <c r="A21" s="49" t="n">
         <v>57</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -65402,34 +65378,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
-        <is>
-          <t>summp</t>
-        </is>
-      </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -65453,7 +65429,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -65477,7 +65453,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -65501,7 +65477,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -65525,7 +65501,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -65549,7 +65525,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -65573,7 +65549,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -65597,7 +65573,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -65621,7 +65597,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -65638,14 +65614,14 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>7700011829</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>28</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -65669,7 +65645,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -65693,7 +65669,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -65717,7 +65693,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -65741,7 +65717,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>40</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -65765,7 +65741,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -65789,7 +65765,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -65813,7 +65789,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>49</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -65837,7 +65813,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -65861,7 +65837,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>55</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -65885,7 +65861,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48" t="n">
+      <c r="A21" s="49" t="n">
         <v>58</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -65928,34 +65904,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
-        <is>
-          <t>summp</t>
-        </is>
-      </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -65979,7 +65955,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -66003,7 +65979,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -66027,7 +66003,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -66051,7 +66027,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -66075,7 +66051,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -66099,7 +66075,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -66123,7 +66099,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -66147,7 +66123,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -66171,7 +66147,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -66195,7 +66171,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -66219,7 +66195,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -66243,7 +66219,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -66267,7 +66243,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -66291,7 +66267,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -66315,7 +66291,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -66339,7 +66315,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -66363,7 +66339,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -66380,14 +66356,14 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8384</v>
+        <v>0.8383999999999999</v>
       </c>
       <c r="F19" t="n">
         <v>7700006983</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -66404,14 +66380,14 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.672</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="F20" t="n">
         <v>7700006983</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48" t="n">
+      <c r="A21" s="49" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -66435,7 +66411,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48" t="n">
+      <c r="A22" s="49" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -66459,7 +66435,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48" t="n">
+      <c r="A23" s="49" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -66476,14 +66452,14 @@
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6839999999999999</v>
       </c>
       <c r="F23" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48" t="n">
+      <c r="A24" s="49" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -66507,7 +66483,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48" t="n">
+      <c r="A25" s="49" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -66531,7 +66507,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="48" t="n">
+      <c r="A26" s="49" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -66555,7 +66531,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="48" t="n">
+      <c r="A27" s="49" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -66572,14 +66548,14 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="F27" t="n">
         <v>7700011829</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="48" t="n">
+      <c r="A28" s="49" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -66603,7 +66579,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="48" t="n">
+      <c r="A29" s="49" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -66627,7 +66603,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="48" t="n">
+      <c r="A30" s="49" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -66651,7 +66627,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="48" t="n">
+      <c r="A31" s="49" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -66675,7 +66651,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="48" t="n">
+      <c r="A32" s="49" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -66699,7 +66675,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="48" t="n">
+      <c r="A33" s="49" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -66723,7 +66699,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="48" t="n">
+      <c r="A34" s="49" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -66747,7 +66723,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="48" t="n">
+      <c r="A35" s="49" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -66771,7 +66747,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="48" t="n">
+      <c r="A36" s="49" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -66795,7 +66771,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="48" t="n">
+      <c r="A37" s="49" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -66819,7 +66795,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="48" t="n">
+      <c r="A38" s="49" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -66843,7 +66819,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="48" t="n">
+      <c r="A39" s="49" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -66867,7 +66843,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="48" t="n">
+      <c r="A40" s="49" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -66891,7 +66867,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="48" t="n">
+      <c r="A41" s="49" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -66915,7 +66891,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="48" t="n">
+      <c r="A42" s="49" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -66939,7 +66915,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="48" t="n">
+      <c r="A43" s="49" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -66963,7 +66939,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="48" t="n">
+      <c r="A44" s="49" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -66987,7 +66963,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="48" t="n">
+      <c r="A45" s="49" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -67011,7 +66987,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="48" t="n">
+      <c r="A46" s="49" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -67035,7 +67011,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="48" t="n">
+      <c r="A47" s="49" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -67059,7 +67035,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="48" t="n">
+      <c r="A48" s="49" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -67083,7 +67059,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="48" t="n">
+      <c r="A49" s="49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -67107,7 +67083,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="48" t="n">
+      <c r="A50" s="49" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -67131,7 +67107,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="48" t="n">
+      <c r="A51" s="49" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -67155,7 +67131,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="48" t="n">
+      <c r="A52" s="49" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -67179,7 +67155,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="48" t="n">
+      <c r="A53" s="49" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -67203,7 +67179,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="48" t="n">
+      <c r="A54" s="49" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -67227,7 +67203,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="48" t="n">
+      <c r="A55" s="49" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -67251,7 +67227,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="48" t="n">
+      <c r="A56" s="49" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -67275,7 +67251,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="48" t="n">
+      <c r="A57" s="49" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -67299,7 +67275,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="48" t="n">
+      <c r="A58" s="49" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -67323,7 +67299,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="48" t="n">
+      <c r="A59" s="49" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -67347,7 +67323,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="48" t="n">
+      <c r="A60" s="49" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -64394,7 +64394,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.288</v>
+        <v>0.232</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -64418,7 +64418,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.624</v>
+        <v>0.9239999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -64442,7 +64442,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>14.76</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -64466,7 +64466,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>14.76</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -64474,7 +64474,7 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -64490,7 +64490,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.288</v>
+        <v>0.384</v>
       </c>
       <c r="F6" t="n">
         <v>7700002394</v>
@@ -64498,7 +64498,7 @@
     </row>
     <row r="7">
       <c r="A7" s="49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -64514,7 +64514,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8383999999999999</v>
+        <v>0.864</v>
       </c>
       <c r="F7" t="n">
         <v>7700006983</v>
@@ -64522,7 +64522,7 @@
     </row>
     <row r="8">
       <c r="A8" s="49" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -64538,7 +64538,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.864</v>
+        <v>0.54</v>
       </c>
       <c r="F8" t="n">
         <v>7700002394</v>
@@ -64546,7 +64546,7 @@
     </row>
     <row r="9">
       <c r="A9" s="49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -64570,7 +64570,7 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -64586,7 +64586,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2.4336</v>
+        <v>3.7908</v>
       </c>
       <c r="F10" t="n">
         <v>7700010069</v>
@@ -64594,7 +64594,7 @@
     </row>
     <row r="11">
       <c r="A11" s="49" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -64610,7 +64610,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>7.488</v>
+        <v>2.6208</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -64618,7 +64618,7 @@
     </row>
     <row r="12">
       <c r="A12" s="49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -64634,7 +64634,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>7.488</v>
+        <v>2.6208</v>
       </c>
       <c r="F12" t="n">
         <v>7700015845</v>
@@ -64642,7 +64642,7 @@
     </row>
     <row r="13">
       <c r="A13" s="49" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -64666,7 +64666,7 @@
     </row>
     <row r="14">
       <c r="A14" s="49" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -64682,7 +64682,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2.016</v>
+        <v>1.68</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
@@ -64690,7 +64690,7 @@
     </row>
     <row r="15">
       <c r="A15" s="49" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>2.8512</v>
+        <v>2.1312</v>
       </c>
       <c r="F15" t="n">
         <v>7700015578</v>
@@ -64714,7 +64714,7 @@
     </row>
     <row r="16">
       <c r="A16" s="49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -64730,7 +64730,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5387999999999999</v>
+        <v>0.3828</v>
       </c>
       <c r="F16" t="n">
         <v>7700016103</v>
@@ -64738,7 +64738,7 @@
     </row>
     <row r="17">
       <c r="A17" s="49" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -64754,7 +64754,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8138</v>
+        <v>0.9652000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>7700016103</v>
@@ -64762,7 +64762,7 @@
     </row>
     <row r="18">
       <c r="A18" s="49" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -64778,7 +64778,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>5.572</v>
+        <v>5.18</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
@@ -64786,7 +64786,7 @@
     </row>
     <row r="19">
       <c r="A19" s="49" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -64810,7 +64810,7 @@
     </row>
     <row r="20">
       <c r="A20" s="49" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -64826,7 +64826,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7488</v>
+        <v>0.5616</v>
       </c>
       <c r="F20" t="n">
         <v>7700013721</v>
@@ -64843,7 +64843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64896,7 +64896,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.272</v>
+        <v>0.336</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -64920,7 +64920,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1.848</v>
+        <v>1.904</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -64944,7 +64944,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>18.96</v>
+        <v>28.44</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -64968,7 +64968,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>18.96</v>
+        <v>28.44</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -64976,7 +64976,7 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -64985,118 +64985,118 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2.64</v>
+        <v>0.336</v>
       </c>
       <c r="F6" t="n">
-        <v>7700013617</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.384</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6719999999999999</v>
+        <v>0.792</v>
       </c>
       <c r="F8" t="n">
-        <v>7700006983</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6839999999999999</v>
+        <v>1.0368</v>
       </c>
       <c r="F9" t="n">
-        <v>7700002394</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>1.1664</v>
+        <v>4.0662</v>
       </c>
       <c r="F10" t="n">
-        <v>7700011829</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="49" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -65105,14 +65105,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0592</v>
+        <v>3.1824</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -65120,7 +65120,7 @@
     </row>
     <row r="12">
       <c r="A12" s="49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -65136,111 +65136,111 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>7.1136</v>
+        <v>3.1824</v>
       </c>
       <c r="F12" t="n">
-        <v>7700010069</v>
+        <v>7700015845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="49" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>7.1136</v>
+        <v>0.3696</v>
       </c>
       <c r="F13" t="n">
-        <v>7700015845</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>S/C/1631640-00-B/#/#</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1631640-00-B</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3696</v>
+        <v>3.024</v>
       </c>
       <c r="F14" t="n">
-        <v>7700003372</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="49" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-B/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1631640-00-B</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2.4864</v>
+        <v>2.304</v>
       </c>
       <c r="F15" t="n">
-        <v>7700015506</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="49" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1.152</v>
+        <v>0.283</v>
       </c>
       <c r="F16" t="n">
-        <v>7700015578</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="49" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -65249,14 +65249,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3111</v>
+        <v>0.599</v>
       </c>
       <c r="F17" t="n">
         <v>7700016103</v>
@@ -65264,97 +65264,73 @@
     </row>
     <row r="18">
       <c r="A18" s="49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.492</v>
+        <v>10.668</v>
       </c>
       <c r="F18" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="49" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1739701-50-B</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>10.08</v>
+        <v>0.0372</v>
       </c>
       <c r="F19" t="n">
-        <v>7700002394</v>
+        <v>7700016554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1752119-03-B</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0372</v>
+        <v>0.7488</v>
       </c>
       <c r="F20" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="49" t="n">
-        <v>57</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.6552</v>
-      </c>
-      <c r="F21" t="n">
         <v>7700013721</v>
       </c>
     </row>
@@ -65369,7 +65345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65422,7 +65398,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.28</v>
+        <v>0.256</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -65446,7 +65422,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.316</v>
+        <v>1.232</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -65470,7 +65446,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>7.68</v>
+        <v>24.72</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -65494,7 +65470,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>7.68</v>
+        <v>24.72</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -65502,7 +65478,7 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -65511,118 +65487,118 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>0.192</v>
       </c>
       <c r="F6" t="n">
-        <v>7700013617</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.192</v>
+        <v>0.7103999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6656</v>
+        <v>0.324</v>
       </c>
       <c r="F8" t="n">
-        <v>7700006983</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.468</v>
+        <v>1.1304</v>
       </c>
       <c r="F9" t="n">
-        <v>7700002394</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9359999999999999</v>
+        <v>4.563</v>
       </c>
       <c r="F10" t="n">
-        <v>7700011829</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="49" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -65631,14 +65607,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>2.34</v>
+        <v>3.5568</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -65646,7 +65622,7 @@
     </row>
     <row r="12">
       <c r="A12" s="49" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -65662,111 +65638,111 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>8.236800000000001</v>
+        <v>3.5568</v>
       </c>
       <c r="F12" t="n">
-        <v>7700010069</v>
+        <v>7700015845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>8.236800000000001</v>
+        <v>0.2016</v>
       </c>
       <c r="F13" t="n">
-        <v>7700015845</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>S/C/1631640-00-B/#/#</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1631640-00-B</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2016</v>
+        <v>1.5792</v>
       </c>
       <c r="F14" t="n">
-        <v>7700003372</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="49" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-B/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1631640-00-B</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>1.344</v>
+        <v>1.152</v>
       </c>
       <c r="F15" t="n">
-        <v>7700015506</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>1.2096</v>
+        <v>0.204</v>
       </c>
       <c r="F16" t="n">
-        <v>7700015578</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -65775,14 +65751,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0707</v>
+        <v>0.299</v>
       </c>
       <c r="F17" t="n">
         <v>7700016103</v>
@@ -65790,97 +65766,73 @@
     </row>
     <row r="18">
       <c r="A18" s="49" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.457</v>
+        <v>5.32</v>
       </c>
       <c r="F18" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="49" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1739701-50-B</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.244</v>
+        <v>0.0392</v>
       </c>
       <c r="F19" t="n">
-        <v>7700002394</v>
+        <v>7700016554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1752119-03-B</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0392</v>
+        <v>0.7488</v>
       </c>
       <c r="F20" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="49" t="n">
-        <v>58</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.7488</v>
-      </c>
-      <c r="F21" t="n">
         <v>7700013721</v>
       </c>
     </row>
@@ -65895,7 +65847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65948,7 +65900,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.288</v>
+        <v>0.232</v>
       </c>
       <c r="F2" t="n">
         <v>7700006983</v>
@@ -65972,7 +65924,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.272</v>
+        <v>0.336</v>
       </c>
       <c r="F3" t="n">
         <v>7700006983</v>
@@ -65996,7 +65948,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.28</v>
+        <v>0.256</v>
       </c>
       <c r="F4" t="n">
         <v>7700006983</v>
@@ -66020,7 +65972,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.624</v>
+        <v>0.9239999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>7700015506</v>
@@ -66044,7 +65996,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.848</v>
+        <v>1.904</v>
       </c>
       <c r="F6" t="n">
         <v>7700015506</v>
@@ -66068,7 +66020,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.316</v>
+        <v>1.232</v>
       </c>
       <c r="F7" t="n">
         <v>7700015506</v>
@@ -66092,7 +66044,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>14.76</v>
       </c>
       <c r="F8" t="n">
         <v>7700013617</v>
@@ -66116,7 +66068,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>14.76</v>
       </c>
       <c r="F9" t="n">
         <v>7700015582</v>
@@ -66140,7 +66092,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>18.96</v>
+        <v>28.44</v>
       </c>
       <c r="F10" t="n">
         <v>7700013617</v>
@@ -66164,7 +66116,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>18.96</v>
+        <v>28.44</v>
       </c>
       <c r="F11" t="n">
         <v>7700015582</v>
@@ -66188,7 +66140,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>7.68</v>
+        <v>24.72</v>
       </c>
       <c r="F12" t="n">
         <v>7700013617</v>
@@ -66212,7 +66164,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>7.68</v>
+        <v>24.72</v>
       </c>
       <c r="F13" t="n">
         <v>7700015582</v>
@@ -66229,17 +66181,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2.64</v>
+        <v>0.384</v>
       </c>
       <c r="F14" t="n">
-        <v>7700013617</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="15">
@@ -66253,17 +66205,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>0.336</v>
       </c>
       <c r="F15" t="n">
-        <v>7700013617</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="16">
@@ -66281,10 +66233,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.288</v>
+        <v>0.192</v>
       </c>
       <c r="F16" t="n">
         <v>7700002394</v>
@@ -66296,22 +66248,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.384</v>
+        <v>0.864</v>
       </c>
       <c r="F17" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="18">
@@ -66320,22 +66272,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.192</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="19">
@@ -66353,10 +66305,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8383999999999999</v>
+        <v>0.7103999999999999</v>
       </c>
       <c r="F19" t="n">
         <v>7700006983</v>
@@ -66368,22 +66320,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6719999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F20" t="n">
-        <v>7700006983</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="21">
@@ -66392,22 +66344,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6656</v>
+        <v>0.792</v>
       </c>
       <c r="F21" t="n">
-        <v>7700006983</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="22">
@@ -66425,10 +66377,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.864</v>
+        <v>0.324</v>
       </c>
       <c r="F22" t="n">
         <v>7700002394</v>
@@ -66440,22 +66392,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6839999999999999</v>
+        <v>1.2024</v>
       </c>
       <c r="F23" t="n">
-        <v>7700002394</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="24">
@@ -66464,22 +66416,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.468</v>
+        <v>1.0368</v>
       </c>
       <c r="F24" t="n">
-        <v>7700002394</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="25">
@@ -66497,10 +66449,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>1.2024</v>
+        <v>1.1304</v>
       </c>
       <c r="F25" t="n">
         <v>7700011829</v>
@@ -66512,22 +66464,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1.1664</v>
+        <v>3.7908</v>
       </c>
       <c r="F26" t="n">
-        <v>7700011829</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="27">
@@ -66536,22 +66488,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9359999999999999</v>
+        <v>4.0662</v>
       </c>
       <c r="F27" t="n">
-        <v>7700011829</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="28">
@@ -66569,10 +66521,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>2.4336</v>
+        <v>4.563</v>
       </c>
       <c r="F28" t="n">
         <v>7700010069</v>
@@ -66589,14 +66541,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>2.0592</v>
+        <v>2.6208</v>
       </c>
       <c r="F29" t="n">
         <v>7700010069</v>
@@ -66613,17 +66565,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>2.34</v>
+        <v>2.6208</v>
       </c>
       <c r="F30" t="n">
-        <v>7700010069</v>
+        <v>7700015845</v>
       </c>
     </row>
     <row r="31">
@@ -66641,10 +66593,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>7.488</v>
+        <v>3.1824</v>
       </c>
       <c r="F31" t="n">
         <v>7700010069</v>
@@ -66665,10 +66617,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>7.488</v>
+        <v>3.1824</v>
       </c>
       <c r="F32" t="n">
         <v>7700015845</v>
@@ -66689,10 +66641,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>7.1136</v>
+        <v>3.5568</v>
       </c>
       <c r="F33" t="n">
         <v>7700010069</v>
@@ -66713,10 +66665,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>7.1136</v>
+        <v>3.5568</v>
       </c>
       <c r="F34" t="n">
         <v>7700015845</v>
@@ -66728,22 +66680,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>8.236800000000001</v>
+        <v>0.2352</v>
       </c>
       <c r="F35" t="n">
-        <v>7700010069</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="36">
@@ -66752,22 +66704,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>8.236800000000001</v>
+        <v>0.3696</v>
       </c>
       <c r="F36" t="n">
-        <v>7700015845</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="37">
@@ -66785,10 +66737,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2352</v>
+        <v>0.2016</v>
       </c>
       <c r="F37" t="n">
         <v>7700003372</v>
@@ -66800,22 +66752,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>S/C/1631640-00-A/#/#</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1631640-00-A</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3696</v>
+        <v>1.68</v>
       </c>
       <c r="F38" t="n">
-        <v>7700003372</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="39">
@@ -66824,22 +66776,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>S/C/1631640-00-B/#/#</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1631640-00-B</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2016</v>
+        <v>3.024</v>
       </c>
       <c r="F39" t="n">
-        <v>7700003372</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="40">
@@ -66848,19 +66800,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-A/#/#</t>
+          <t>S/C/1631640-00-B/#/#</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1631640-00-A</t>
+          <t>1631640-00-B</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>2.016</v>
+        <v>1.5792</v>
       </c>
       <c r="F40" t="n">
         <v>7700015506</v>
@@ -66872,22 +66824,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-B/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1631640-00-B</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>2.4864</v>
+        <v>2.1312</v>
       </c>
       <c r="F41" t="n">
-        <v>7700015506</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="42">
@@ -66896,22 +66848,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-B/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1631640-00-B</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>1.344</v>
+        <v>2.304</v>
       </c>
       <c r="F42" t="n">
-        <v>7700015506</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="43">
@@ -66929,10 +66881,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>2.8512</v>
+        <v>1.152</v>
       </c>
       <c r="F43" t="n">
         <v>7700015578</v>
@@ -66944,22 +66896,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>1.152</v>
+        <v>0.3828</v>
       </c>
       <c r="F44" t="n">
-        <v>7700015578</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="45">
@@ -66968,22 +66920,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>1.2096</v>
+        <v>0.283</v>
       </c>
       <c r="F45" t="n">
-        <v>7700015578</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="46">
@@ -67001,10 +66953,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5387999999999999</v>
+        <v>0.204</v>
       </c>
       <c r="F46" t="n">
         <v>7700016103</v>
@@ -67021,14 +66973,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3111</v>
+        <v>0.9652000000000001</v>
       </c>
       <c r="F47" t="n">
         <v>7700016103</v>
@@ -67045,14 +66997,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0707</v>
+        <v>0.599</v>
       </c>
       <c r="F48" t="n">
         <v>7700016103</v>
@@ -67073,10 +67025,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8138</v>
+        <v>0.299</v>
       </c>
       <c r="F49" t="n">
         <v>7700016103</v>
@@ -67088,22 +67040,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0.492</v>
+        <v>5.18</v>
       </c>
       <c r="F50" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="51">
@@ -67112,22 +67064,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>0.457</v>
+        <v>10.668</v>
       </c>
       <c r="F51" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="52">
@@ -67145,10 +67097,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>5.572</v>
+        <v>5.32</v>
       </c>
       <c r="F52" t="n">
         <v>7700002394</v>
@@ -67160,22 +67112,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1739701-50-B</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>10.08</v>
+        <v>0.0288</v>
       </c>
       <c r="F53" t="n">
-        <v>7700002394</v>
+        <v>7700016554</v>
       </c>
     </row>
     <row r="54">
@@ -67184,22 +67136,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1739701-50-B</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>6.244</v>
+        <v>0.0372</v>
       </c>
       <c r="F54" t="n">
-        <v>7700002394</v>
+        <v>7700016554</v>
       </c>
     </row>
     <row r="55">
@@ -67217,10 +67169,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0288</v>
+        <v>0.0392</v>
       </c>
       <c r="F55" t="n">
         <v>7700016554</v>
@@ -67232,22 +67184,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1752119-03-B</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0372</v>
+        <v>0.5616</v>
       </c>
       <c r="F56" t="n">
-        <v>7700016554</v>
+        <v>7700013721</v>
       </c>
     </row>
     <row r="57">
@@ -67256,22 +67208,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1752119-03-B</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0392</v>
+        <v>0.7488</v>
       </c>
       <c r="F57" t="n">
-        <v>7700016554</v>
+        <v>7700013721</v>
       </c>
     </row>
     <row r="58">
@@ -67289,60 +67241,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
         <v>0.7488</v>
       </c>
       <c r="F58" t="n">
-        <v>7700013721</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="49" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.6552</v>
-      </c>
-      <c r="F59" t="n">
-        <v>7700013721</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="49" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.7488</v>
-      </c>
-      <c r="F60" t="n">
         <v>7700013721</v>
       </c>
     </row>

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -64418,7 +64418,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9239999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -64442,7 +64442,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>14.76</v>
+        <v>15.84</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -64466,7 +64466,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>14.76</v>
+        <v>15.84</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -64490,7 +64490,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.384</v>
+        <v>0.288</v>
       </c>
       <c r="F6" t="n">
         <v>7700002394</v>
@@ -64538,7 +64538,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.54</v>
+        <v>0.504</v>
       </c>
       <c r="F8" t="n">
         <v>7700002394</v>
@@ -64586,7 +64586,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3.7908</v>
+        <v>3.3</v>
       </c>
       <c r="F10" t="n">
         <v>7700010069</v>
@@ -64610,7 +64610,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>2.6208</v>
+        <v>2.4346</v>
       </c>
       <c r="F11" t="n">
         <v>7700010069</v>
@@ -64634,7 +64634,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2.6208</v>
+        <v>2.4346</v>
       </c>
       <c r="F12" t="n">
         <v>7700015845</v>
@@ -64682,7 +64682,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.68</v>
+        <v>2.0832</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
@@ -64706,7 +64706,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>2.1312</v>
+        <v>2.6208</v>
       </c>
       <c r="F15" t="n">
         <v>7700015578</v>
@@ -64778,7 +64778,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>5.18</v>
+        <v>5.236</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
@@ -64802,7 +64802,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0288</v>
+        <v>0.0226</v>
       </c>
       <c r="F19" t="n">
         <v>7700016554</v>
@@ -64826,7 +64826,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5616</v>
+        <v>0.3777</v>
       </c>
       <c r="F20" t="n">
         <v>7700013721</v>
@@ -64944,7 +64944,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>28.44</v>
+        <v>28.68</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -64968,7 +64968,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>28.44</v>
+        <v>28.68</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -64992,7 +64992,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.336</v>
+        <v>0.384</v>
       </c>
       <c r="F6" t="n">
         <v>7700002394</v>
@@ -65040,7 +65040,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.792</v>
+        <v>0.828</v>
       </c>
       <c r="F8" t="n">
         <v>7700002394</v>
@@ -65088,7 +65088,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0662</v>
+        <v>4.0422</v>
       </c>
       <c r="F10" t="n">
         <v>7700010069</v>
@@ -65184,7 +65184,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>3.024</v>
+        <v>3.0576</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
@@ -65208,7 +65208,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2.304</v>
+        <v>1.9584</v>
       </c>
       <c r="F15" t="n">
         <v>7700015578</v>
@@ -65280,7 +65280,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>10.668</v>
+        <v>10.64</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
@@ -65328,7 +65328,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7488</v>
+        <v>0.7494000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>7700013721</v>
@@ -65422,7 +65422,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.232</v>
+        <v>1.288</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
@@ -65446,7 +65446,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>24.72</v>
+        <v>22.2</v>
       </c>
       <c r="F4" t="n">
         <v>7700013617</v>
@@ -65470,7 +65470,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>24.72</v>
+        <v>22.2</v>
       </c>
       <c r="F5" t="n">
         <v>7700015582</v>
@@ -65590,7 +65590,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>4.563</v>
+        <v>4.6884</v>
       </c>
       <c r="F10" t="n">
         <v>7700010069</v>
@@ -65686,7 +65686,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5792</v>
+        <v>1.6464</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
@@ -65710,7 +65710,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>1.152</v>
+        <v>1.0368</v>
       </c>
       <c r="F15" t="n">
         <v>7700015578</v>
@@ -65782,7 +65782,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.32</v>
+        <v>5.18</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
@@ -65830,7 +65830,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7488</v>
+        <v>0.7532000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>7700013721</v>
@@ -65972,7 +65972,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9239999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="F5" t="n">
         <v>7700015506</v>
@@ -66020,7 +66020,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.232</v>
+        <v>1.288</v>
       </c>
       <c r="F7" t="n">
         <v>7700015506</v>
@@ -66044,7 +66044,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>14.76</v>
+        <v>15.84</v>
       </c>
       <c r="F8" t="n">
         <v>7700013617</v>
@@ -66068,7 +66068,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>14.76</v>
+        <v>15.84</v>
       </c>
       <c r="F9" t="n">
         <v>7700015582</v>
@@ -66092,7 +66092,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>28.44</v>
+        <v>28.68</v>
       </c>
       <c r="F10" t="n">
         <v>7700013617</v>
@@ -66116,7 +66116,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>28.44</v>
+        <v>28.68</v>
       </c>
       <c r="F11" t="n">
         <v>7700015582</v>
@@ -66140,7 +66140,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>24.72</v>
+        <v>22.2</v>
       </c>
       <c r="F12" t="n">
         <v>7700013617</v>
@@ -66164,7 +66164,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>24.72</v>
+        <v>22.2</v>
       </c>
       <c r="F13" t="n">
         <v>7700015582</v>
@@ -66188,7 +66188,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.384</v>
+        <v>0.288</v>
       </c>
       <c r="F14" t="n">
         <v>7700002394</v>
@@ -66212,7 +66212,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.336</v>
+        <v>0.384</v>
       </c>
       <c r="F15" t="n">
         <v>7700002394</v>
@@ -66332,7 +66332,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.54</v>
+        <v>0.504</v>
       </c>
       <c r="F20" t="n">
         <v>7700002394</v>
@@ -66356,7 +66356,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0.792</v>
+        <v>0.828</v>
       </c>
       <c r="F21" t="n">
         <v>7700002394</v>
@@ -66476,7 +66476,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>3.7908</v>
+        <v>3.3</v>
       </c>
       <c r="F26" t="n">
         <v>7700010069</v>
@@ -66500,7 +66500,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>4.0662</v>
+        <v>4.0422</v>
       </c>
       <c r="F27" t="n">
         <v>7700010069</v>
@@ -66524,7 +66524,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>4.563</v>
+        <v>4.6884</v>
       </c>
       <c r="F28" t="n">
         <v>7700010069</v>
@@ -66548,7 +66548,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>2.6208</v>
+        <v>2.4346</v>
       </c>
       <c r="F29" t="n">
         <v>7700010069</v>
@@ -66572,7 +66572,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>2.6208</v>
+        <v>2.4346</v>
       </c>
       <c r="F30" t="n">
         <v>7700015845</v>
@@ -66764,7 +66764,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1.68</v>
+        <v>2.0832</v>
       </c>
       <c r="F38" t="n">
         <v>7700015506</v>
@@ -66788,7 +66788,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>3.024</v>
+        <v>3.0576</v>
       </c>
       <c r="F39" t="n">
         <v>7700015506</v>
@@ -66812,7 +66812,7 @@
         <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>1.5792</v>
+        <v>1.6464</v>
       </c>
       <c r="F40" t="n">
         <v>7700015506</v>
@@ -66836,7 +66836,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>2.1312</v>
+        <v>2.6208</v>
       </c>
       <c r="F41" t="n">
         <v>7700015578</v>
@@ -66860,7 +66860,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>2.304</v>
+        <v>1.9584</v>
       </c>
       <c r="F42" t="n">
         <v>7700015578</v>
@@ -66884,7 +66884,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>1.152</v>
+        <v>1.0368</v>
       </c>
       <c r="F43" t="n">
         <v>7700015578</v>
@@ -67052,7 +67052,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>5.18</v>
+        <v>5.236</v>
       </c>
       <c r="F50" t="n">
         <v>7700002394</v>
@@ -67076,7 +67076,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>10.668</v>
+        <v>10.64</v>
       </c>
       <c r="F51" t="n">
         <v>7700002394</v>
@@ -67100,7 +67100,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>5.32</v>
+        <v>5.18</v>
       </c>
       <c r="F52" t="n">
         <v>7700002394</v>
@@ -67124,7 +67124,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0288</v>
+        <v>0.0226</v>
       </c>
       <c r="F53" t="n">
         <v>7700016554</v>
@@ -67196,7 +67196,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5616</v>
+        <v>0.3777</v>
       </c>
       <c r="F56" t="n">
         <v>7700013721</v>
@@ -67220,7 +67220,7 @@
         <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7488</v>
+        <v>0.7494000000000001</v>
       </c>
       <c r="F57" t="n">
         <v>7700013721</v>
@@ -67244,7 +67244,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7488</v>
+        <v>0.7532000000000001</v>
       </c>
       <c r="F58" t="n">
         <v>7700013721</v>

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -64826,7 +64826,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3777</v>
+        <v>0.3776</v>
       </c>
       <c r="F20" t="n">
         <v>7700013721</v>
@@ -65064,7 +65064,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0368</v>
+        <v>1.1952</v>
       </c>
       <c r="F9" t="n">
         <v>7700011829</v>
@@ -66428,7 +66428,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0368</v>
+        <v>1.1952</v>
       </c>
       <c r="F24" t="n">
         <v>7700011829</v>
@@ -67196,7 +67196,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3777</v>
+        <v>0.3776</v>
       </c>
       <c r="F56" t="n">
         <v>7700013721</v>

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3580" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_总" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <externalReferences>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -25,7 +30,7 @@
     <numFmt numFmtId="166" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -49,6 +54,13 @@
       <b val="1"/>
       <color theme="8" tint="-0.249977111117893"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="微软雅黑"/>
@@ -104,10 +116,19 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
-      <sz val="11"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="81"/>
+      <sz val="9"/>
     </font>
     <font>
       <b val="1"/>
@@ -169,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,21 +214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -221,111 +227,99 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -337,55 +331,64 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -552,6 +555,21 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="计划汇率"/>
+      <sheetName val="下拉菜单"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,13 +835,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
@@ -881,8 +899,7 @@
     <col width="11.1640625" customWidth="1" style="34" min="74" max="75"/>
     <col width="17.1640625" bestFit="1" customWidth="1" style="34" min="76" max="76"/>
     <col width="17.1640625" bestFit="1" customWidth="1" style="27" min="77" max="87"/>
-    <col width="8.83203125" customWidth="1" style="27" min="88" max="88"/>
-    <col width="8.83203125" customWidth="1" style="27" min="89" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="27" min="88" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.5" customFormat="1" customHeight="1" s="18">
@@ -1326,7 +1343,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.5" customHeight="1" s="48">
+    <row r="2" hidden="1" ht="42.5" customHeight="1" s="47">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index No.(Do NOT delete or alter)</t>
@@ -1766,7 +1783,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1" s="47">
       <c r="A3" s="24" t="n">
         <v>1</v>
       </c>
@@ -2086,7 +2103,7 @@
         <v/>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1" s="47">
       <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
@@ -2412,7 +2429,7 @@
         <v/>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1" s="47">
       <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
@@ -2748,7 +2765,7 @@
         <v/>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1" s="47">
       <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
@@ -3082,7 +3099,7 @@
         <v/>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1" s="47">
       <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
@@ -3416,7 +3433,7 @@
         <v/>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1" s="47">
       <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
@@ -3754,7 +3771,7 @@
         <v/>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1" s="47">
       <c r="A9" s="28" t="n">
         <v>7</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v/>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1" s="47">
       <c r="A10" s="28" t="n">
         <v>8</v>
       </c>
@@ -4438,7 +4455,7 @@
         <v/>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1" s="47">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增1</t>
@@ -4778,7 +4795,7 @@
         <v/>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1" s="47">
       <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
@@ -5118,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1" s="47">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增2</t>
@@ -5456,7 +5473,7 @@
         <v/>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1" s="47">
       <c r="A14" s="24" t="n">
         <v>10</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="1" s="38">
+    <row r="15" hidden="1" customFormat="1" s="38">
       <c r="A15" s="24" t="n">
         <v>11</v>
       </c>
@@ -6128,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1" s="47">
       <c r="A16" s="24" t="n">
         <v>12</v>
       </c>
@@ -6458,7 +6475,7 @@
         <v/>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1" s="47">
       <c r="A17" s="24" t="n">
         <v>13</v>
       </c>
@@ -6780,7 +6797,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="1" s="38">
+    <row r="18" hidden="1" customFormat="1" s="38">
       <c r="A18" s="24" t="n">
         <v>14</v>
       </c>
@@ -7104,7 +7121,7 @@
         <v/>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1" s="47">
       <c r="A19" s="24" t="n">
         <v>15</v>
       </c>
@@ -7424,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1" s="47">
       <c r="A20" s="24" t="n">
         <v>16</v>
       </c>
@@ -7744,7 +7761,7 @@
         <v/>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1" s="47">
       <c r="A21" s="24" t="n">
         <v>17</v>
       </c>
@@ -8064,7 +8081,7 @@
         <v/>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1" s="47">
       <c r="A22" s="24" t="n">
         <v>18</v>
       </c>
@@ -13158,7 +13175,7 @@
         <v/>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1" s="47">
       <c r="A37" s="24" t="n">
         <v>33</v>
       </c>
@@ -13482,7 +13499,7 @@
         <v/>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1" s="47">
       <c r="A38" s="24" t="n">
         <v>34</v>
       </c>
@@ -13818,7 +13835,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="1" s="38">
+    <row r="39" hidden="1" customFormat="1" s="38">
       <c r="A39" s="24" t="n">
         <v>35</v>
       </c>
@@ -14158,7 +14175,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="1" s="38">
+    <row r="40" hidden="1" customFormat="1" s="38">
       <c r="A40" s="24" t="n">
         <v>36</v>
       </c>
@@ -14498,7 +14515,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="1" s="38">
+    <row r="41" hidden="1" customFormat="1" s="38">
       <c r="A41" s="28" t="n">
         <v>37</v>
       </c>
@@ -14840,7 +14857,7 @@
         <v/>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1" s="47">
       <c r="A42" s="24" t="n">
         <v>38</v>
       </c>
@@ -15164,7 +15181,7 @@
         <v/>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1" s="47">
       <c r="A43" s="24" t="n">
         <v>39</v>
       </c>
@@ -15488,7 +15505,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="1" s="38">
+    <row r="44" hidden="1" customFormat="1" s="38">
       <c r="A44" s="28" t="n">
         <v>40</v>
       </c>
@@ -15816,7 +15833,7 @@
         <v/>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1" s="47">
       <c r="A45" s="28" t="n">
         <v>41</v>
       </c>
@@ -16142,7 +16159,7 @@
         <v/>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1" s="47">
       <c r="A46" s="24" t="n">
         <v>42</v>
       </c>
@@ -16466,7 +16483,7 @@
         <v/>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1" s="47">
       <c r="A47" s="24" t="n">
         <v>43</v>
       </c>
@@ -16790,7 +16807,7 @@
         <v/>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1" s="47">
       <c r="A48" s="24" t="n">
         <v>44</v>
       </c>
@@ -17114,7 +17131,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="1" s="38">
+    <row r="49" hidden="1" customFormat="1" s="38">
       <c r="A49" s="28" t="n">
         <v>45</v>
       </c>
@@ -17456,7 +17473,7 @@
         <v/>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1" s="47">
       <c r="A50" s="24" t="n">
         <v>46</v>
       </c>
@@ -17780,7 +17797,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="1" s="38">
+    <row r="51" hidden="1" customFormat="1" s="38">
       <c r="A51" s="28" t="n">
         <v>47</v>
       </c>
@@ -18108,7 +18125,7 @@
         <v/>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1" s="47">
       <c r="A52" s="24" t="n">
         <v>48</v>
       </c>
@@ -18432,7 +18449,7 @@
         <v/>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1" s="47">
       <c r="A53" s="24" t="n">
         <v>49</v>
       </c>
@@ -18752,7 +18769,7 @@
         <v/>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1" s="47">
       <c r="A54" s="24" t="n">
         <v>50</v>
       </c>
@@ -19070,7 +19087,7 @@
         <v/>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1" s="47">
       <c r="A55" s="24" t="n">
         <v>51</v>
       </c>
@@ -19388,7 +19405,7 @@
         <v/>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1" s="47">
       <c r="A56" s="24" t="n">
         <v>52</v>
       </c>
@@ -19706,7 +19723,7 @@
         <v/>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1" s="47">
       <c r="A57" s="24" t="n">
         <v>53</v>
       </c>
@@ -20026,7 +20043,7 @@
         <v/>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1" s="47">
       <c r="A58" s="24" t="n">
         <v>54</v>
       </c>
@@ -20346,7 +20363,7 @@
         <v/>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1" s="47">
       <c r="A59" s="24" t="n">
         <v>55</v>
       </c>
@@ -20666,7 +20683,7 @@
         <v/>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1" s="47">
       <c r="A60" s="24" t="n">
         <v>56</v>
       </c>
@@ -20986,7 +21003,7 @@
         <v/>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1" s="47">
       <c r="A61" s="24" t="n">
         <v>57</v>
       </c>
@@ -21306,7 +21323,7 @@
         <v/>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1" s="47">
       <c r="A62" s="24" t="n">
         <v>58</v>
       </c>
@@ -21640,7 +21657,7 @@
         <v/>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1" s="47">
       <c r="A63" s="24" t="n">
         <v>59</v>
       </c>
@@ -21974,7 +21991,7 @@
         <v/>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1" s="47">
       <c r="A64" s="24" t="n">
         <v>60</v>
       </c>
@@ -22308,7 +22325,7 @@
         <v/>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1" s="47">
       <c r="A65" s="24" t="n">
         <v>61</v>
       </c>
@@ -22646,7 +22663,7 @@
         <v/>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1" s="47">
       <c r="A66" s="24" t="n">
         <v>62</v>
       </c>
@@ -22980,7 +22997,7 @@
         <v/>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1" s="47">
       <c r="A67" s="24" t="n">
         <v>63</v>
       </c>
@@ -23312,7 +23329,7 @@
         <v/>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1" s="47">
       <c r="A68" s="24" t="n">
         <v>64</v>
       </c>
@@ -23634,7 +23651,7 @@
         <v/>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1" s="47">
       <c r="A69" s="24" t="n">
         <v>65</v>
       </c>
@@ -23956,7 +23973,7 @@
         <v/>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1" s="47">
       <c r="A70" s="24" t="n">
         <v>66</v>
       </c>
@@ -24294,7 +24311,7 @@
         <v/>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1" s="47">
       <c r="A71" s="24" t="n">
         <v>67</v>
       </c>
@@ -24628,7 +24645,7 @@
         <v/>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1" s="47">
       <c r="A72" s="24" t="n">
         <v>68</v>
       </c>
@@ -24950,7 +24967,7 @@
         <v/>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1" s="47">
       <c r="A73" s="24" t="n">
         <v>69</v>
       </c>
@@ -25282,7 +25299,7 @@
         <v/>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1" s="47">
       <c r="A74" s="24" t="n">
         <v>70</v>
       </c>
@@ -25604,7 +25621,7 @@
         <v/>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1" s="47">
       <c r="A75" s="24" t="n">
         <v>71</v>
       </c>
@@ -25924,7 +25941,7 @@
         <v/>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1" s="47">
       <c r="A76" s="24" t="n">
         <v>72</v>
       </c>
@@ -26246,7 +26263,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="1" s="31">
+    <row r="77" hidden="1" customFormat="1" s="31">
       <c r="A77" s="29" t="n">
         <v>73</v>
       </c>
@@ -26584,7 +26601,7 @@
         <v/>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1" s="47">
       <c r="A78" s="24" t="n">
         <v>74</v>
       </c>
@@ -26918,7 +26935,7 @@
         <v/>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1" s="47">
       <c r="A79" s="24" t="n">
         <v>75</v>
       </c>
@@ -27240,7 +27257,7 @@
         <v/>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1" s="47">
       <c r="A80" s="24" t="n">
         <v>76</v>
       </c>
@@ -27562,7 +27579,7 @@
         <v/>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1" s="47">
       <c r="A81" s="24" t="n">
         <v>77</v>
       </c>
@@ -27896,7 +27913,7 @@
         <v/>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1" s="47">
       <c r="A82" s="24" t="n">
         <v>78</v>
       </c>
@@ -28226,7 +28243,7 @@
         <v/>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1" s="47">
       <c r="A83" s="24" t="n">
         <v>79</v>
       </c>
@@ -28548,7 +28565,7 @@
         <v/>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1" s="47">
       <c r="A84" s="24" t="n">
         <v>80</v>
       </c>
@@ -28868,7 +28885,7 @@
         <v/>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1" s="47">
       <c r="A85" s="28" t="n">
         <v>81</v>
       </c>
@@ -29192,7 +29209,7 @@
         <v/>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1" s="47">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增</t>
@@ -29518,7 +29535,7 @@
         <v/>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1" s="47">
       <c r="A87" s="24" t="n">
         <v>82</v>
       </c>
@@ -29840,7 +29857,7 @@
         <v/>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1" s="47">
       <c r="A88" s="24" t="n">
         <v>83</v>
       </c>
@@ -30162,7 +30179,7 @@
         <v/>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1" s="47">
       <c r="A89" s="24" t="n">
         <v>84</v>
       </c>
@@ -30484,7 +30501,7 @@
         <v/>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1" s="47">
       <c r="A90" s="24" t="n">
         <v>85</v>
       </c>
@@ -30806,7 +30823,7 @@
         <v/>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1" s="47">
       <c r="A91" s="24" t="n">
         <v>86</v>
       </c>
@@ -31128,7 +31145,7 @@
         <v/>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1" s="47">
       <c r="A92" s="24" t="n">
         <v>87</v>
       </c>
@@ -31450,7 +31467,7 @@
         <v/>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1" s="47">
       <c r="A93" s="24" t="n">
         <v>88</v>
       </c>
@@ -31772,7 +31789,7 @@
         <v/>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1" s="47">
       <c r="A94" s="24" t="n">
         <v>89</v>
       </c>
@@ -32098,7 +32115,7 @@
         <v/>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1" s="47">
       <c r="A95" s="24" t="n">
         <v>90</v>
       </c>
@@ -32432,7 +32449,7 @@
         <v/>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1" s="47">
       <c r="A96" s="24" t="n">
         <v>91</v>
       </c>
@@ -32754,7 +32771,7 @@
         <v/>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1" s="47">
       <c r="A97" s="24" t="n">
         <v>92</v>
       </c>
@@ -33074,7 +33091,7 @@
         <v/>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1" s="47">
       <c r="A98" s="24" t="n">
         <v>93</v>
       </c>
@@ -33398,7 +33415,7 @@
         <v/>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1" s="47">
       <c r="A99" s="24" t="n">
         <v>94</v>
       </c>
@@ -33720,7 +33737,7 @@
         <v/>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1" s="47">
       <c r="A100" s="24" t="n">
         <v>95</v>
       </c>
@@ -34042,7 +34059,7 @@
         <v/>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1" s="47">
       <c r="A101" s="24" t="n">
         <v>96</v>
       </c>
@@ -34364,7 +34381,7 @@
         <v/>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1" s="47">
       <c r="A102" s="24" t="n">
         <v>97</v>
       </c>
@@ -34682,7 +34699,7 @@
         <v/>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1" s="47">
       <c r="A103" s="24" t="n">
         <v>98</v>
       </c>
@@ -35002,7 +35019,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="1" s="38">
+    <row r="104" hidden="1" customFormat="1" s="38">
       <c r="A104" s="36" t="n">
         <v>99</v>
       </c>
@@ -35338,7 +35355,7 @@
         <v/>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="1" s="47">
       <c r="A105" s="24" t="n">
         <v>100</v>
       </c>
@@ -35658,7 +35675,7 @@
         <v/>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1" s="47">
       <c r="A106" s="24" t="n">
         <v>101</v>
       </c>
@@ -35980,7 +35997,7 @@
         <v/>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1" s="47">
       <c r="A107" s="24" t="n">
         <v>102</v>
       </c>
@@ -36300,7 +36317,7 @@
         <v/>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1" s="47">
       <c r="A108" s="24" t="n">
         <v>103</v>
       </c>
@@ -36632,7 +36649,7 @@
         <v/>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1" s="47">
       <c r="A109" s="28" t="n">
         <v>104</v>
       </c>
@@ -36966,7 +36983,7 @@
         <v/>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1" s="47">
       <c r="A110" s="24" t="n">
         <v>105</v>
       </c>
@@ -37286,7 +37303,7 @@
         <v/>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="1" s="47">
       <c r="A111" s="24" t="n">
         <v>106</v>
       </c>
@@ -37606,7 +37623,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="1" s="38">
+    <row r="112" hidden="1" customFormat="1" s="38">
       <c r="A112" s="36" t="n">
         <v>107</v>
       </c>
@@ -37938,7 +37955,7 @@
         <v/>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1" s="47">
       <c r="A113" s="24" t="n">
         <v>108</v>
       </c>
@@ -38258,7 +38275,7 @@
         <v/>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1" s="47">
       <c r="A114" s="24" t="n">
         <v>109</v>
       </c>
@@ -38580,7 +38597,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="1" s="38">
+    <row r="115" hidden="1" customFormat="1" s="38">
       <c r="A115" s="36" t="n">
         <v>110</v>
       </c>
@@ -38900,7 +38917,7 @@
         <v/>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="1" s="47">
       <c r="A116" s="24" t="n">
         <v>111</v>
       </c>
@@ -39220,7 +39237,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="1" s="38">
+    <row r="117" hidden="1" customFormat="1" s="38">
       <c r="A117" s="36" t="n">
         <v>112</v>
       </c>
@@ -39552,7 +39569,7 @@
         <v/>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="1" s="47">
       <c r="A118" s="24" t="n">
         <v>113</v>
       </c>
@@ -39874,7 +39891,7 @@
         <v/>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="1" s="47">
       <c r="A119" s="24" t="n">
         <v>114</v>
       </c>
@@ -40196,7 +40213,7 @@
         <v/>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="1" s="47">
       <c r="A120" s="24" t="n">
         <v>115</v>
       </c>
@@ -40518,7 +40535,7 @@
         <v/>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="1" s="47">
       <c r="A121" s="24" t="n">
         <v>116</v>
       </c>
@@ -40838,7 +40855,7 @@
         <v/>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="1" s="47">
       <c r="A122" s="24" t="n">
         <v>117</v>
       </c>
@@ -41160,7 +41177,7 @@
         <v/>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="1" s="47">
       <c r="A123" s="24" t="n">
         <v>118</v>
       </c>
@@ -41482,7 +41499,7 @@
         <v/>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="1" s="47">
       <c r="A124" s="24" t="n">
         <v>119</v>
       </c>
@@ -41802,7 +41819,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="1" s="38">
+    <row r="125" hidden="1" customFormat="1" s="38">
       <c r="A125" s="36" t="n">
         <v>120</v>
       </c>
@@ -42126,7 +42143,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" customFormat="1" s="38">
+    <row r="126" hidden="1" customFormat="1" s="38">
       <c r="A126" s="36" t="n">
         <v>121</v>
       </c>
@@ -42446,7 +42463,7 @@
         <v/>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="1" s="47">
       <c r="A127" s="24" t="n">
         <v>122</v>
       </c>
@@ -42766,7 +42783,7 @@
         <v/>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="1" s="47">
       <c r="A128" s="24" t="n">
         <v>123</v>
       </c>
@@ -43086,7 +43103,7 @@
         <v/>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="1" s="47">
       <c r="A129" s="24" t="n">
         <v>124</v>
       </c>
@@ -43404,7 +43421,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" customFormat="1" s="38">
+    <row r="130" hidden="1" customFormat="1" s="38">
       <c r="A130" s="36" t="n">
         <v>125</v>
       </c>
@@ -43724,7 +43741,7 @@
         <v/>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="1" s="47">
       <c r="A131" s="24" t="n">
         <v>126</v>
       </c>
@@ -44048,7 +44065,7 @@
         <v/>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="1" s="47">
       <c r="A132" s="24" t="n">
         <v>127</v>
       </c>
@@ -44368,7 +44385,7 @@
         <v/>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="1" s="47">
       <c r="A133" s="24" t="n">
         <v>128</v>
       </c>
@@ -44688,7 +44705,7 @@
         <v/>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="1" s="47">
       <c r="A134" s="24" t="n">
         <v>129</v>
       </c>
@@ -45008,7 +45025,7 @@
         <v/>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="1" s="47">
       <c r="A135" s="24" t="n">
         <v>130</v>
       </c>
@@ -45328,7 +45345,7 @@
         <v/>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="1" s="47">
       <c r="A136" s="24" t="n">
         <v>131</v>
       </c>
@@ -45646,7 +45663,7 @@
         <v/>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="1" s="47">
       <c r="A137" s="24" t="n">
         <v>132</v>
       </c>
@@ -45974,7 +45991,7 @@
         <v/>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="1" s="47">
       <c r="A138" s="24" t="n">
         <v>133</v>
       </c>
@@ -46298,7 +46315,7 @@
         <v/>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="1" s="47">
       <c r="A139" s="24" t="n">
         <v>134</v>
       </c>
@@ -46618,7 +46635,7 @@
         <v/>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="1" s="47">
       <c r="A140" s="24" t="n">
         <v>135</v>
       </c>
@@ -46938,7 +46955,7 @@
         <v/>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="1" s="47">
       <c r="A141" s="24" t="n">
         <v>136</v>
       </c>
@@ -47262,7 +47279,7 @@
         <v/>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="1" s="47">
       <c r="A142" s="24" t="n">
         <v>137</v>
       </c>
@@ -47582,7 +47599,7 @@
         <v/>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="1" s="47">
       <c r="A143" s="24" t="n">
         <v>138</v>
       </c>
@@ -47906,7 +47923,7 @@
         <v/>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="1" s="47">
       <c r="A144" s="24" t="n">
         <v>139</v>
       </c>
@@ -48226,7 +48243,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" customFormat="1" s="38">
+    <row r="145" hidden="1" customFormat="1" s="38">
       <c r="A145" s="36" t="n">
         <v>140</v>
       </c>
@@ -48546,7 +48563,7 @@
         <v/>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="1" s="47">
       <c r="A146" s="24" t="n">
         <v>141</v>
       </c>
@@ -48866,7 +48883,7 @@
         <v/>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="1" s="47">
       <c r="A147" s="24" t="n">
         <v>142</v>
       </c>
@@ -49194,7 +49211,7 @@
         <v/>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="1" s="47">
       <c r="A148" s="24" t="n">
         <v>143</v>
       </c>
@@ -49514,7 +49531,7 @@
         <v/>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="1" s="47">
       <c r="A149" s="24" t="n">
         <v>144</v>
       </c>
@@ -49834,7 +49851,7 @@
         <v/>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="1" s="47">
       <c r="A150" s="24" t="n">
         <v>145</v>
       </c>
@@ -50154,7 +50171,7 @@
         <v/>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="1" s="47">
       <c r="A151" s="24" t="n">
         <v>146</v>
       </c>
@@ -50474,7 +50491,7 @@
         <v/>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="1" s="47">
       <c r="A152" s="24" t="n">
         <v>147</v>
       </c>
@@ -50794,7 +50811,7 @@
         <v/>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="1" s="47">
       <c r="A153" s="24" t="n">
         <v>148</v>
       </c>
@@ -51114,7 +51131,7 @@
         <v/>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="1" s="47">
       <c r="A154" s="24" t="n">
         <v>149</v>
       </c>
@@ -51434,7 +51451,7 @@
         <v/>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="1" s="47">
       <c r="A155" s="24" t="n">
         <v>150</v>
       </c>
@@ -51754,7 +51771,7 @@
         <v/>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="1" s="47">
       <c r="A156" s="24" t="n">
         <v>151</v>
       </c>
@@ -52072,7 +52089,7 @@
         <v/>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="1" s="47">
       <c r="A157" s="24" t="n">
         <v>152</v>
       </c>
@@ -52390,7 +52407,7 @@
         <v/>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="1" s="47">
       <c r="A158" s="24" t="n">
         <v>153</v>
       </c>
@@ -52708,7 +52725,7 @@
         <v/>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="1" s="47">
       <c r="A159" s="24" t="n">
         <v>154</v>
       </c>
@@ -53026,7 +53043,7 @@
         <v/>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="1" s="47">
       <c r="A160" s="24" t="n">
         <v>155</v>
       </c>
@@ -53344,7 +53361,7 @@
         <v/>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="1" s="47">
       <c r="A161" s="24" t="n">
         <v>156</v>
       </c>
@@ -53662,7 +53679,7 @@
         <v/>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="1" s="47">
       <c r="A162" s="24" t="n">
         <v>157</v>
       </c>
@@ -53980,7 +53997,7 @@
         <v/>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="1" s="47">
       <c r="A163" s="24" t="n">
         <v>158</v>
       </c>
@@ -54298,7 +54315,7 @@
         <v/>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="1" s="47">
       <c r="A164" s="24" t="n">
         <v>159</v>
       </c>
@@ -54616,7 +54633,7 @@
         <v/>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="1" s="47">
       <c r="A165" s="24" t="n">
         <v>160</v>
       </c>
@@ -54934,7 +54951,7 @@
         <v/>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="1" s="47">
       <c r="A166" s="24" t="n">
         <v>161</v>
       </c>
@@ -55252,7 +55269,7 @@
         <v/>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="1" s="47">
       <c r="A167" s="24" t="n">
         <v>162</v>
       </c>
@@ -55570,7 +55587,7 @@
         <v/>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="1" s="47">
       <c r="A168" s="24" t="n">
         <v>163</v>
       </c>
@@ -55888,7 +55905,7 @@
         <v/>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="1" s="47">
       <c r="A169" s="24" t="n">
         <v>164</v>
       </c>
@@ -56210,7 +56227,7 @@
         <v/>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1" s="47">
       <c r="A170" s="24" t="n">
         <v>165</v>
       </c>
@@ -56540,7 +56557,7 @@
         <v/>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="1" s="47">
       <c r="A171" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增1</t>
@@ -56874,7 +56891,7 @@
         <v/>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="1" s="47">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>客户发展部新增2</t>
@@ -57212,7 +57229,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" customFormat="1" s="31">
+    <row r="173" hidden="1" customFormat="1" s="31">
       <c r="A173" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增3</t>
@@ -57548,7 +57565,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" customFormat="1" s="31">
+    <row r="174" hidden="1" customFormat="1" s="31">
       <c r="A174" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增4</t>
@@ -57882,7 +57899,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" customFormat="1" s="31">
+    <row r="175" hidden="1" customFormat="1" s="31">
       <c r="A175" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增5</t>
@@ -58216,7 +58233,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" customFormat="1" s="31">
+    <row r="176" hidden="1" customFormat="1" s="31">
       <c r="A176" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增6</t>
@@ -58550,7 +58567,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" customFormat="1" s="31">
+    <row r="177" hidden="1" customFormat="1" s="31">
       <c r="A177" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增7</t>
@@ -58882,7 +58899,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" customFormat="1" s="31">
+    <row r="178" hidden="1" customFormat="1" s="31">
       <c r="A178" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增8</t>
@@ -59214,7 +59231,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" customFormat="1" s="31">
+    <row r="179" hidden="1" customFormat="1" s="31">
       <c r="A179" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增9</t>
@@ -59546,7 +59563,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" customFormat="1" s="31">
+    <row r="180" hidden="1" customFormat="1" s="31">
       <c r="A180" s="32" t="inlineStr">
         <is>
           <t>客户发展部新增10</t>
@@ -59880,7 +59897,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" customFormat="1" s="31">
+    <row r="181" hidden="1" customFormat="1" s="31">
       <c r="A181" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增11</t>
@@ -60214,7 +60231,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" customFormat="1" s="31">
+    <row r="182" hidden="1" customFormat="1" s="31">
       <c r="A182" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增12</t>
@@ -60546,7 +60563,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" customFormat="1" s="39">
+    <row r="183" hidden="1" customFormat="1" s="39">
       <c r="A183" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增13</t>
@@ -60884,7 +60901,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" customFormat="1" s="39">
+    <row r="184" hidden="1" customFormat="1" s="39">
       <c r="A184" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增14</t>
@@ -61216,7 +61233,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" customFormat="1" s="31">
+    <row r="185" hidden="1" customFormat="1" s="31">
       <c r="A185" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增15</t>
@@ -61548,7 +61565,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" customFormat="1" s="31">
+    <row r="186" hidden="1" customFormat="1" s="31">
       <c r="A186" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增16</t>
@@ -61880,7 +61897,7 @@
         <v/>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="1" s="47">
       <c r="A187" s="24" t="n">
         <v>505</v>
       </c>
@@ -62202,7 +62219,7 @@
         <v/>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="1" s="47">
       <c r="A188" s="24" t="n">
         <v>506</v>
       </c>
@@ -62524,7 +62541,7 @@
         <v/>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="1" s="47">
       <c r="A189" s="28" t="n">
         <v>507</v>
       </c>
@@ -62848,7 +62865,7 @@
         <v/>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="1" s="47">
       <c r="A190" s="28" t="n">
         <v>508</v>
       </c>
@@ -63168,7 +63185,7 @@
         <v/>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="1" s="47">
       <c r="A191" s="28" t="n">
         <v>509</v>
       </c>
@@ -63498,7 +63515,7 @@
         <v/>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="1" s="47">
       <c r="A192" s="28" t="n">
         <v>510</v>
       </c>
@@ -63830,7 +63847,7 @@
         <v/>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="1" s="47">
       <c r="A193" s="24" t="n">
         <v>511</v>
       </c>
@@ -64296,6 +64313,13 @@
       <c r="AX200" s="35" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI193">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="宁波拓普集团股份有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>
@@ -64350,34 +64374,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="49" t="inlineStr">
+      <c r="B1" s="48" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="49" t="inlineStr">
+      <c r="C1" s="48" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="49" t="inlineStr">
+      <c r="D1" s="48" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="49" t="inlineStr">
+      <c r="E1" s="48" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="49" t="inlineStr">
+      <c r="F1" s="48" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -64401,7 +64425,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="48" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -64425,7 +64449,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="48" t="n">
         <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -64449,7 +64473,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="48" t="n">
         <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -64473,7 +64497,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="48" t="n">
         <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -64497,7 +64521,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="48" t="n">
         <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -64521,7 +64545,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="n">
+      <c r="A8" s="48" t="n">
         <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -64545,7 +64569,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="n">
+      <c r="A9" s="48" t="n">
         <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -64569,7 +64593,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="n">
+      <c r="A10" s="48" t="n">
         <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -64593,7 +64617,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="n">
+      <c r="A11" s="48" t="n">
         <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -64617,7 +64641,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="n">
+      <c r="A12" s="48" t="n">
         <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -64641,7 +64665,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="n">
+      <c r="A13" s="48" t="n">
         <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -64665,7 +64689,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="n">
+      <c r="A14" s="48" t="n">
         <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -64689,7 +64713,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="n">
+      <c r="A15" s="48" t="n">
         <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -64713,7 +64737,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="n">
+      <c r="A16" s="48" t="n">
         <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -64737,7 +64761,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="n">
+      <c r="A17" s="48" t="n">
         <v>45</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -64761,7 +64785,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="n">
+      <c r="A18" s="48" t="n">
         <v>48</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -64785,7 +64809,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="n">
+      <c r="A19" s="48" t="n">
         <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -64809,7 +64833,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="n">
+      <c r="A20" s="48" t="n">
         <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -64852,34 +64876,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="49" t="inlineStr">
+      <c r="B1" s="48" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="49" t="inlineStr">
+      <c r="C1" s="48" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="49" t="inlineStr">
+      <c r="D1" s="48" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="49" t="inlineStr">
+      <c r="E1" s="48" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="49" t="inlineStr">
+      <c r="F1" s="48" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="48" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -64903,7 +64927,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="48" t="n">
         <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -64927,7 +64951,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="48" t="n">
         <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -64951,7 +64975,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="48" t="n">
         <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -64975,7 +64999,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="48" t="n">
         <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -64999,7 +65023,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="48" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -65023,7 +65047,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="n">
+      <c r="A8" s="48" t="n">
         <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -65047,7 +65071,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="n">
+      <c r="A9" s="48" t="n">
         <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -65071,7 +65095,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="n">
+      <c r="A10" s="48" t="n">
         <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -65095,7 +65119,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="n">
+      <c r="A11" s="48" t="n">
         <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -65119,7 +65143,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="n">
+      <c r="A12" s="48" t="n">
         <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -65143,7 +65167,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="n">
+      <c r="A13" s="48" t="n">
         <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -65167,7 +65191,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="n">
+      <c r="A14" s="48" t="n">
         <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -65191,7 +65215,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="n">
+      <c r="A15" s="48" t="n">
         <v>40</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -65215,7 +65239,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="n">
+      <c r="A16" s="48" t="n">
         <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -65239,7 +65263,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="n">
+      <c r="A17" s="48" t="n">
         <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -65263,7 +65287,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="n">
+      <c r="A18" s="48" t="n">
         <v>49</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -65287,7 +65311,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="n">
+      <c r="A19" s="48" t="n">
         <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -65311,7 +65335,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="n">
+      <c r="A20" s="48" t="n">
         <v>55</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -65354,34 +65378,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="49" t="inlineStr">
+      <c r="B1" s="48" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="49" t="inlineStr">
+      <c r="C1" s="48" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="49" t="inlineStr">
+      <c r="D1" s="48" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="49" t="inlineStr">
+      <c r="E1" s="48" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="49" t="inlineStr">
+      <c r="F1" s="48" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="48" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -65405,7 +65429,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="48" t="n">
         <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -65429,7 +65453,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="48" t="n">
         <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -65453,7 +65477,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="48" t="n">
         <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -65477,7 +65501,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="48" t="n">
         <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -65501,7 +65525,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="48" t="n">
         <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -65525,7 +65549,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="n">
+      <c r="A8" s="48" t="n">
         <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -65549,7 +65573,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="n">
+      <c r="A9" s="48" t="n">
         <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -65573,7 +65597,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="n">
+      <c r="A10" s="48" t="n">
         <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -65597,7 +65621,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="n">
+      <c r="A11" s="48" t="n">
         <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -65621,7 +65645,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="n">
+      <c r="A12" s="48" t="n">
         <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -65645,7 +65669,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="n">
+      <c r="A13" s="48" t="n">
         <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -65669,7 +65693,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="n">
+      <c r="A14" s="48" t="n">
         <v>38</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -65693,7 +65717,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="n">
+      <c r="A15" s="48" t="n">
         <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -65717,7 +65741,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="n">
+      <c r="A16" s="48" t="n">
         <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -65741,7 +65765,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="n">
+      <c r="A17" s="48" t="n">
         <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -65765,7 +65789,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="n">
+      <c r="A18" s="48" t="n">
         <v>50</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -65789,7 +65813,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="n">
+      <c r="A19" s="48" t="n">
         <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -65813,7 +65837,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="n">
+      <c r="A20" s="48" t="n">
         <v>56</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -65856,34 +65880,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="49" t="inlineStr">
+      <c r="B1" s="48" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="49" t="inlineStr">
+      <c r="C1" s="48" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="49" t="inlineStr">
+      <c r="D1" s="48" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="49" t="inlineStr">
+      <c r="E1" s="48" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="49" t="inlineStr">
+      <c r="F1" s="48" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -65907,7 +65931,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="48" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -65931,7 +65955,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="48" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -65955,7 +65979,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="48" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -65979,7 +66003,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="48" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -66003,7 +66027,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="48" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -66027,7 +66051,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="n">
+      <c r="A8" s="48" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -66051,7 +66075,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="n">
+      <c r="A9" s="48" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -66075,7 +66099,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="n">
+      <c r="A10" s="48" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -66099,7 +66123,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="n">
+      <c r="A11" s="48" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -66123,7 +66147,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="n">
+      <c r="A12" s="48" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -66147,7 +66171,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="n">
+      <c r="A13" s="48" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -66171,7 +66195,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="n">
+      <c r="A14" s="48" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -66195,7 +66219,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="n">
+      <c r="A15" s="48" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -66219,7 +66243,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="n">
+      <c r="A16" s="48" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -66243,7 +66267,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="n">
+      <c r="A17" s="48" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -66267,7 +66291,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="n">
+      <c r="A18" s="48" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -66291,7 +66315,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="n">
+      <c r="A19" s="48" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -66315,7 +66339,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="n">
+      <c r="A20" s="48" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -66339,7 +66363,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="n">
+      <c r="A21" s="48" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -66363,7 +66387,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="n">
+      <c r="A22" s="48" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -66387,7 +66411,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="n">
+      <c r="A23" s="48" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -66411,7 +66435,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="n">
+      <c r="A24" s="48" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -66435,7 +66459,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="n">
+      <c r="A25" s="48" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -66459,7 +66483,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="n">
+      <c r="A26" s="48" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -66483,7 +66507,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="n">
+      <c r="A27" s="48" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -66507,7 +66531,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="n">
+      <c r="A28" s="48" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -66531,7 +66555,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="n">
+      <c r="A29" s="48" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -66555,7 +66579,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="n">
+      <c r="A30" s="48" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -66579,7 +66603,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="n">
+      <c r="A31" s="48" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -66603,7 +66627,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="n">
+      <c r="A32" s="48" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -66627,7 +66651,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="n">
+      <c r="A33" s="48" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -66651,7 +66675,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="n">
+      <c r="A34" s="48" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -66675,7 +66699,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="n">
+      <c r="A35" s="48" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -66699,7 +66723,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="n">
+      <c r="A36" s="48" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -66723,7 +66747,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="n">
+      <c r="A37" s="48" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -66747,7 +66771,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="49" t="n">
+      <c r="A38" s="48" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -66771,7 +66795,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="49" t="n">
+      <c r="A39" s="48" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -66795,7 +66819,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="49" t="n">
+      <c r="A40" s="48" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -66819,7 +66843,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="49" t="n">
+      <c r="A41" s="48" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -66843,7 +66867,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="49" t="n">
+      <c r="A42" s="48" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -66867,7 +66891,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="49" t="n">
+      <c r="A43" s="48" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -66891,7 +66915,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="49" t="n">
+      <c r="A44" s="48" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -66915,7 +66939,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="49" t="n">
+      <c r="A45" s="48" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -66939,7 +66963,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="49" t="n">
+      <c r="A46" s="48" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -66963,7 +66987,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="49" t="n">
+      <c r="A47" s="48" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -66987,7 +67011,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="49" t="n">
+      <c r="A48" s="48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -67011,7 +67035,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="49" t="n">
+      <c r="A49" s="48" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -67035,7 +67059,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="49" t="n">
+      <c r="A50" s="48" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -67059,7 +67083,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="49" t="n">
+      <c r="A51" s="48" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -67083,7 +67107,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="49" t="n">
+      <c r="A52" s="48" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -67107,7 +67131,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="49" t="n">
+      <c r="A53" s="48" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -67131,7 +67155,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="49" t="n">
+      <c r="A54" s="48" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -67155,7 +67179,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="49" t="n">
+      <c r="A55" s="48" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -67179,7 +67203,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="49" t="n">
+      <c r="A56" s="48" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -67203,7 +67227,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="49" t="n">
+      <c r="A57" s="48" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -67227,7 +67251,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="49" t="n">
+      <c r="A58" s="48" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">

--- a/客户发展部2023.3-2023.5预测.xlsx
+++ b/客户发展部2023.3-2023.5预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3580" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,12 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_总" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -30,7 +25,7 @@
     <numFmt numFmtId="166" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -54,13 +49,6 @@
       <b val="1"/>
       <color theme="8" tint="-0.249977111117893"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="微软雅黑"/>
@@ -116,19 +104,10 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -190,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,6 +193,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -227,99 +221,111 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -331,64 +337,55 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -555,21 +552,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="计划汇率"/>
-      <sheetName val="下拉菜单"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,16 +817,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
+      <selection pane="bottomLeft" activeCell="X147" sqref="X147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -869,25 +851,24 @@
     <col hidden="1" width="26.1640625" customWidth="1" style="27" min="19" max="19"/>
     <col hidden="1" width="57.83203125" customWidth="1" style="27" min="20" max="20"/>
     <col width="62.5" customWidth="1" style="27" min="21" max="21"/>
-    <col hidden="1" width="32.6640625" customWidth="1" style="27" min="22" max="22"/>
-    <col hidden="1" width="5.83203125" customWidth="1" style="27" min="23" max="23"/>
-    <col hidden="1" width="22.5" customWidth="1" style="27" min="24" max="24"/>
-    <col hidden="1" width="36" customWidth="1" style="27" min="25" max="25"/>
-    <col hidden="1" width="19.33203125" customWidth="1" style="27" min="26" max="26"/>
-    <col hidden="1" width="19.1640625" customWidth="1" style="27" min="27" max="27"/>
-    <col hidden="1" width="74.83203125" customWidth="1" style="27" min="28" max="28"/>
-    <col hidden="1" width="17.1640625" customWidth="1" style="27" min="29" max="29"/>
-    <col hidden="1" width="19.5" customWidth="1" style="27" min="30" max="30"/>
-    <col hidden="1" width="23.1640625" customWidth="1" style="27" min="31" max="31"/>
-    <col hidden="1" width="23.6640625" customWidth="1" style="27" min="32" max="32"/>
-    <col hidden="1" width="13.1640625" customWidth="1" style="33" min="33" max="33"/>
-    <col hidden="1" width="15.1640625" customWidth="1" style="33" min="34" max="34"/>
-    <col hidden="1" width="20.5" customWidth="1" style="27" min="35" max="35"/>
-    <col hidden="1" width="26.33203125" customWidth="1" style="27" min="36" max="36"/>
-    <col hidden="1" width="22.33203125" customWidth="1" style="27" min="37" max="41"/>
-    <col hidden="1" width="13.1640625" customWidth="1" style="27" min="42" max="42"/>
-    <col hidden="1" width="8.83203125" customWidth="1" style="44" min="43" max="43"/>
-    <col width="8.83203125" customWidth="1" style="44" min="44" max="45"/>
+    <col width="32.6640625" customWidth="1" style="27" min="22" max="22"/>
+    <col width="5.83203125" customWidth="1" style="27" min="23" max="23"/>
+    <col width="22.5" customWidth="1" style="27" min="24" max="24"/>
+    <col width="36" customWidth="1" style="27" min="25" max="25"/>
+    <col width="19.33203125" customWidth="1" style="27" min="26" max="26"/>
+    <col width="19.1640625" customWidth="1" style="27" min="27" max="27"/>
+    <col width="74.83203125" customWidth="1" style="27" min="28" max="28"/>
+    <col width="17.1640625" customWidth="1" style="27" min="29" max="29"/>
+    <col width="19.5" customWidth="1" style="27" min="30" max="30"/>
+    <col width="23.1640625" customWidth="1" style="27" min="31" max="31"/>
+    <col width="23.6640625" customWidth="1" style="27" min="32" max="32"/>
+    <col width="13.1640625" customWidth="1" style="33" min="33" max="33"/>
+    <col width="15.1640625" customWidth="1" style="33" min="34" max="34"/>
+    <col width="20.5" customWidth="1" style="27" min="35" max="35"/>
+    <col width="26.33203125" customWidth="1" style="27" min="36" max="36"/>
+    <col width="22.33203125" customWidth="1" style="27" min="37" max="41"/>
+    <col width="13.1640625" customWidth="1" style="27" min="42" max="42"/>
+    <col width="8.83203125" customWidth="1" style="44" min="43" max="45"/>
     <col width="8.83203125" customWidth="1" style="27" min="46" max="49"/>
     <col width="11.83203125" customWidth="1" style="27" min="50" max="50"/>
     <col width="8.83203125" customWidth="1" style="27" min="51" max="57"/>
@@ -899,7 +880,8 @@
     <col width="11.1640625" customWidth="1" style="34" min="74" max="75"/>
     <col width="17.1640625" bestFit="1" customWidth="1" style="34" min="76" max="76"/>
     <col width="17.1640625" bestFit="1" customWidth="1" style="27" min="77" max="87"/>
-    <col width="8.83203125" customWidth="1" style="27" min="88" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="27" min="88" max="88"/>
+    <col width="8.83203125" customWidth="1" style="27" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.5" customFormat="1" customHeight="1" s="18">
@@ -1343,7 +1325,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" ht="42.5" customHeight="1" s="47">
+    <row r="2" ht="42.5" customHeight="1" s="48">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index No.(Do NOT delete or alter)</t>
@@ -1783,7 +1765,7 @@
         </is>
       </c>
     </row>
-    <row r="3" hidden="1" s="47">
+    <row r="3">
       <c r="A3" s="24" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2085,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" hidden="1" s="47">
+    <row r="4">
       <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
@@ -2429,7 +2411,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" hidden="1" s="47">
+    <row r="5">
       <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
@@ -2765,7 +2747,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" hidden="1" s="47">
+    <row r="6">
       <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
@@ -3099,7 +3081,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" hidden="1" s="47">
+    <row r="7">
       <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
@@ -3433,7 +3415,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" hidden="1" s="47">
+    <row r="8">
       <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
@@ -3771,7 +3753,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" hidden="1" s="47">
+    <row r="9">
       <c r="A9" s="28" t="n">
         <v>7</v>
       </c>
@@ -4113,7 +4095,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" hidden="1" s="47">
+    <row r="10">
       <c r="A10" s="28" t="n">
         <v>8</v>
       </c>
@@ -4455,7 +4437,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" hidden="1" s="47">
+    <row r="11">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增1</t>
@@ -4795,7 +4777,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" hidden="1" s="47">
+    <row r="12">
       <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
@@ -5135,7 +5117,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" hidden="1" s="47">
+    <row r="13">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增2</t>
@@ -5473,7 +5455,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" hidden="1" s="47">
+    <row r="14">
       <c r="A14" s="24" t="n">
         <v>10</v>
       </c>
@@ -5813,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" hidden="1" customFormat="1" s="38">
+    <row r="15" customFormat="1" s="38">
       <c r="A15" s="24" t="n">
         <v>11</v>
       </c>
@@ -6145,7 +6127,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" hidden="1" s="47">
+    <row r="16">
       <c r="A16" s="24" t="n">
         <v>12</v>
       </c>
@@ -6475,7 +6457,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" hidden="1" s="47">
+    <row r="17">
       <c r="A17" s="24" t="n">
         <v>13</v>
       </c>
@@ -6797,7 +6779,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" hidden="1" customFormat="1" s="38">
+    <row r="18" customFormat="1" s="38">
       <c r="A18" s="24" t="n">
         <v>14</v>
       </c>
@@ -7121,7 +7103,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" hidden="1" s="47">
+    <row r="19">
       <c r="A19" s="24" t="n">
         <v>15</v>
       </c>
@@ -7441,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" hidden="1" s="47">
+    <row r="20">
       <c r="A20" s="24" t="n">
         <v>16</v>
       </c>
@@ -7761,7 +7743,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" hidden="1" s="47">
+    <row r="21">
       <c r="A21" s="24" t="n">
         <v>17</v>
       </c>
@@ -8081,7 +8063,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" hidden="1" s="47">
+    <row r="22">
       <c r="A22" s="24" t="n">
         <v>18</v>
       </c>
@@ -13175,7 +13157,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" hidden="1" s="47">
+    <row r="37">
       <c r="A37" s="24" t="n">
         <v>33</v>
       </c>
@@ -13499,7 +13481,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" hidden="1" s="47">
+    <row r="38">
       <c r="A38" s="24" t="n">
         <v>34</v>
       </c>
@@ -13835,7 +13817,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" hidden="1" customFormat="1" s="38">
+    <row r="39" customFormat="1" s="38">
       <c r="A39" s="24" t="n">
         <v>35</v>
       </c>
@@ -14175,7 +14157,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" hidden="1" customFormat="1" s="38">
+    <row r="40" customFormat="1" s="38">
       <c r="A40" s="24" t="n">
         <v>36</v>
       </c>
@@ -14515,7 +14497,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" hidden="1" customFormat="1" s="38">
+    <row r="41" customFormat="1" s="38">
       <c r="A41" s="28" t="n">
         <v>37</v>
       </c>
@@ -14857,7 +14839,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" hidden="1" s="47">
+    <row r="42">
       <c r="A42" s="24" t="n">
         <v>38</v>
       </c>
@@ -15181,7 +15163,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" hidden="1" s="47">
+    <row r="43">
       <c r="A43" s="24" t="n">
         <v>39</v>
       </c>
@@ -15505,7 +15487,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" hidden="1" customFormat="1" s="38">
+    <row r="44" customFormat="1" s="38">
       <c r="A44" s="28" t="n">
         <v>40</v>
       </c>
@@ -15833,7 +15815,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" hidden="1" s="47">
+    <row r="45">
       <c r="A45" s="28" t="n">
         <v>41</v>
       </c>
@@ -16159,7 +16141,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" hidden="1" s="47">
+    <row r="46">
       <c r="A46" s="24" t="n">
         <v>42</v>
       </c>
@@ -16483,7 +16465,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" hidden="1" s="47">
+    <row r="47">
       <c r="A47" s="24" t="n">
         <v>43</v>
       </c>
@@ -16807,7 +16789,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" hidden="1" s="47">
+    <row r="48">
       <c r="A48" s="24" t="n">
         <v>44</v>
       </c>
@@ -17131,7 +17113,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" hidden="1" customFormat="1" s="38">
+    <row r="49" customFormat="1" s="38">
       <c r="A49" s="28" t="n">
         <v>45</v>
       </c>
@@ -17473,7 +17455,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" hidden="1" s="47">
+    <row r="50">
       <c r="A50" s="24" t="n">
         <v>46</v>
       </c>
@@ -17797,7 +17779,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" hidden="1" customFormat="1" s="38">
+    <row r="51" customFormat="1" s="38">
       <c r="A51" s="28" t="n">
         <v>47</v>
       </c>
@@ -18125,7 +18107,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" hidden="1" s="47">
+    <row r="52">
       <c r="A52" s="24" t="n">
         <v>48</v>
       </c>
@@ -18449,7 +18431,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" hidden="1" s="47">
+    <row r="53">
       <c r="A53" s="24" t="n">
         <v>49</v>
       </c>
@@ -18769,7 +18751,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" hidden="1" s="47">
+    <row r="54">
       <c r="A54" s="24" t="n">
         <v>50</v>
       </c>
@@ -19087,7 +19069,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" hidden="1" s="47">
+    <row r="55">
       <c r="A55" s="24" t="n">
         <v>51</v>
       </c>
@@ -19405,7 +19387,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" hidden="1" s="47">
+    <row r="56">
       <c r="A56" s="24" t="n">
         <v>52</v>
       </c>
@@ -19723,7 +19705,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" hidden="1" s="47">
+    <row r="57">
       <c r="A57" s="24" t="n">
         <v>53</v>
       </c>
@@ -20043,7 +20025,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" hidden="1" s="47">
+    <row r="58">
       <c r="A58" s="24" t="n">
         <v>54</v>
       </c>
@@ -20363,7 +20345,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" hidden="1" s="47">
+    <row r="59">
       <c r="A59" s="24" t="n">
         <v>55</v>
       </c>
@@ -20683,7 +20665,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" hidden="1" s="47">
+    <row r="60">
       <c r="A60" s="24" t="n">
         <v>56</v>
       </c>
@@ -21003,7 +20985,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" hidden="1" s="47">
+    <row r="61">
       <c r="A61" s="24" t="n">
         <v>57</v>
       </c>
@@ -21323,7 +21305,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" hidden="1" s="47">
+    <row r="62">
       <c r="A62" s="24" t="n">
         <v>58</v>
       </c>
@@ -21657,7 +21639,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" hidden="1" s="47">
+    <row r="63">
       <c r="A63" s="24" t="n">
         <v>59</v>
       </c>
@@ -21991,7 +21973,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" hidden="1" s="47">
+    <row r="64">
       <c r="A64" s="24" t="n">
         <v>60</v>
       </c>
@@ -22325,7 +22307,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" hidden="1" s="47">
+    <row r="65">
       <c r="A65" s="24" t="n">
         <v>61</v>
       </c>
@@ -22663,7 +22645,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" hidden="1" s="47">
+    <row r="66">
       <c r="A66" s="24" t="n">
         <v>62</v>
       </c>
@@ -22997,7 +22979,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" hidden="1" s="47">
+    <row r="67">
       <c r="A67" s="24" t="n">
         <v>63</v>
       </c>
@@ -23329,7 +23311,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" hidden="1" s="47">
+    <row r="68">
       <c r="A68" s="24" t="n">
         <v>64</v>
       </c>
@@ -23651,7 +23633,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" hidden="1" s="47">
+    <row r="69">
       <c r="A69" s="24" t="n">
         <v>65</v>
       </c>
@@ -23973,7 +23955,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" hidden="1" s="47">
+    <row r="70">
       <c r="A70" s="24" t="n">
         <v>66</v>
       </c>
@@ -24311,7 +24293,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" hidden="1" s="47">
+    <row r="71">
       <c r="A71" s="24" t="n">
         <v>67</v>
       </c>
@@ -24645,7 +24627,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" hidden="1" s="47">
+    <row r="72">
       <c r="A72" s="24" t="n">
         <v>68</v>
       </c>
@@ -24967,7 +24949,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" hidden="1" s="47">
+    <row r="73">
       <c r="A73" s="24" t="n">
         <v>69</v>
       </c>
@@ -25299,7 +25281,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" hidden="1" s="47">
+    <row r="74">
       <c r="A74" s="24" t="n">
         <v>70</v>
       </c>
@@ -25621,7 +25603,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" hidden="1" s="47">
+    <row r="75">
       <c r="A75" s="24" t="n">
         <v>71</v>
       </c>
@@ -25941,7 +25923,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" hidden="1" s="47">
+    <row r="76">
       <c r="A76" s="24" t="n">
         <v>72</v>
       </c>
@@ -26263,7 +26245,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" hidden="1" customFormat="1" s="31">
+    <row r="77" customFormat="1" s="31">
       <c r="A77" s="29" t="n">
         <v>73</v>
       </c>
@@ -26601,7 +26583,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" hidden="1" s="47">
+    <row r="78">
       <c r="A78" s="24" t="n">
         <v>74</v>
       </c>
@@ -26935,7 +26917,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" hidden="1" s="47">
+    <row r="79">
       <c r="A79" s="24" t="n">
         <v>75</v>
       </c>
@@ -27257,7 +27239,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" hidden="1" s="47">
+    <row r="80">
       <c r="A80" s="24" t="n">
         <v>76</v>
       </c>
@@ -27579,7 +27561,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" hidden="1" s="47">
+    <row r="81">
       <c r="A81" s="24" t="n">
         <v>77</v>
       </c>
@@ -27913,7 +27895,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" hidden="1" s="47">
+    <row r="82">
       <c r="A82" s="24" t="n">
         <v>78</v>
       </c>
@@ -28243,7 +28225,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" hidden="1" s="47">
+    <row r="83">
       <c r="A83" s="24" t="n">
         <v>79</v>
       </c>
@@ -28565,7 +28547,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" hidden="1" s="47">
+    <row r="84">
       <c r="A84" s="24" t="n">
         <v>80</v>
       </c>
@@ -28885,7 +28867,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" hidden="1" s="47">
+    <row r="85">
       <c r="A85" s="28" t="n">
         <v>81</v>
       </c>
@@ -29209,7 +29191,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" hidden="1" s="47">
+    <row r="86">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增</t>
@@ -29535,7 +29517,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" hidden="1" s="47">
+    <row r="87">
       <c r="A87" s="24" t="n">
         <v>82</v>
       </c>
@@ -29857,7 +29839,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" hidden="1" s="47">
+    <row r="88">
       <c r="A88" s="24" t="n">
         <v>83</v>
       </c>
@@ -30179,7 +30161,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" hidden="1" s="47">
+    <row r="89">
       <c r="A89" s="24" t="n">
         <v>84</v>
       </c>
@@ -30501,7 +30483,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" hidden="1" s="47">
+    <row r="90">
       <c r="A90" s="24" t="n">
         <v>85</v>
       </c>
@@ -30823,7 +30805,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" hidden="1" s="47">
+    <row r="91">
       <c r="A91" s="24" t="n">
         <v>86</v>
       </c>
@@ -31145,7 +31127,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" hidden="1" s="47">
+    <row r="92">
       <c r="A92" s="24" t="n">
         <v>87</v>
       </c>
@@ -31467,7 +31449,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" hidden="1" s="47">
+    <row r="93">
       <c r="A93" s="24" t="n">
         <v>88</v>
       </c>
@@ -31789,7 +31771,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" hidden="1" s="47">
+    <row r="94">
       <c r="A94" s="24" t="n">
         <v>89</v>
       </c>
@@ -32115,7 +32097,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" hidden="1" s="47">
+    <row r="95">
       <c r="A95" s="24" t="n">
         <v>90</v>
       </c>
@@ -32449,7 +32431,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" hidden="1" s="47">
+    <row r="96">
       <c r="A96" s="24" t="n">
         <v>91</v>
       </c>
@@ -32771,7 +32753,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" hidden="1" s="47">
+    <row r="97">
       <c r="A97" s="24" t="n">
         <v>92</v>
       </c>
@@ -33091,7 +33073,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" hidden="1" s="47">
+    <row r="98">
       <c r="A98" s="24" t="n">
         <v>93</v>
       </c>
@@ -33415,7 +33397,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" hidden="1" s="47">
+    <row r="99">
       <c r="A99" s="24" t="n">
         <v>94</v>
       </c>
@@ -33737,7 +33719,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" hidden="1" s="47">
+    <row r="100">
       <c r="A100" s="24" t="n">
         <v>95</v>
       </c>
@@ -34059,7 +34041,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" hidden="1" s="47">
+    <row r="101">
       <c r="A101" s="24" t="n">
         <v>96</v>
       </c>
@@ -34381,7 +34363,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" hidden="1" s="47">
+    <row r="102">
       <c r="A102" s="24" t="n">
         <v>97</v>
       </c>
@@ -34699,7 +34681,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" hidden="1" s="47">
+    <row r="103">
       <c r="A103" s="24" t="n">
         <v>98</v>
       </c>
@@ -35019,7 +35001,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" hidden="1" customFormat="1" s="38">
+    <row r="104" customFormat="1" s="38">
       <c r="A104" s="36" t="n">
         <v>99</v>
       </c>
@@ -35355,7 +35337,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" hidden="1" s="47">
+    <row r="105">
       <c r="A105" s="24" t="n">
         <v>100</v>
       </c>
@@ -35675,7 +35657,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" hidden="1" s="47">
+    <row r="106">
       <c r="A106" s="24" t="n">
         <v>101</v>
       </c>
@@ -35997,7 +35979,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" hidden="1" s="47">
+    <row r="107">
       <c r="A107" s="24" t="n">
         <v>102</v>
       </c>
@@ -36317,7 +36299,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" hidden="1" s="47">
+    <row r="108">
       <c r="A108" s="24" t="n">
         <v>103</v>
       </c>
@@ -36649,7 +36631,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" hidden="1" s="47">
+    <row r="109">
       <c r="A109" s="28" t="n">
         <v>104</v>
       </c>
@@ -36983,7 +36965,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" hidden="1" s="47">
+    <row r="110">
       <c r="A110" s="24" t="n">
         <v>105</v>
       </c>
@@ -37303,7 +37285,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" hidden="1" s="47">
+    <row r="111">
       <c r="A111" s="24" t="n">
         <v>106</v>
       </c>
@@ -37623,7 +37605,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" hidden="1" customFormat="1" s="38">
+    <row r="112" customFormat="1" s="38">
       <c r="A112" s="36" t="n">
         <v>107</v>
       </c>
@@ -37955,7 +37937,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" hidden="1" s="47">
+    <row r="113">
       <c r="A113" s="24" t="n">
         <v>108</v>
       </c>
@@ -38275,7 +38257,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" hidden="1" s="47">
+    <row r="114">
       <c r="A114" s="24" t="n">
         <v>109</v>
       </c>
@@ -38597,7 +38579,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" hidden="1" customFormat="1" s="38">
+    <row r="115" customFormat="1" s="38">
       <c r="A115" s="36" t="n">
         <v>110</v>
       </c>
@@ -38917,7 +38899,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" hidden="1" s="47">
+    <row r="116">
       <c r="A116" s="24" t="n">
         <v>111</v>
       </c>
@@ -39237,7 +39219,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" hidden="1" customFormat="1" s="38">
+    <row r="117" customFormat="1" s="38">
       <c r="A117" s="36" t="n">
         <v>112</v>
       </c>
@@ -39569,7 +39551,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" hidden="1" s="47">
+    <row r="118">
       <c r="A118" s="24" t="n">
         <v>113</v>
       </c>
@@ -39891,7 +39873,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" hidden="1" s="47">
+    <row r="119">
       <c r="A119" s="24" t="n">
         <v>114</v>
       </c>
@@ -40213,7 +40195,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" hidden="1" s="47">
+    <row r="120">
       <c r="A120" s="24" t="n">
         <v>115</v>
       </c>
@@ -40535,7 +40517,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" hidden="1" s="47">
+    <row r="121">
       <c r="A121" s="24" t="n">
         <v>116</v>
       </c>
@@ -40855,7 +40837,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" hidden="1" s="47">
+    <row r="122">
       <c r="A122" s="24" t="n">
         <v>117</v>
       </c>
@@ -41177,7 +41159,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" hidden="1" s="47">
+    <row r="123">
       <c r="A123" s="24" t="n">
         <v>118</v>
       </c>
@@ -41499,7 +41481,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" hidden="1" s="47">
+    <row r="124">
       <c r="A124" s="24" t="n">
         <v>119</v>
       </c>
@@ -41819,7 +41801,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" hidden="1" customFormat="1" s="38">
+    <row r="125" customFormat="1" s="38">
       <c r="A125" s="36" t="n">
         <v>120</v>
       </c>
@@ -42143,7 +42125,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" hidden="1" customFormat="1" s="38">
+    <row r="126" customFormat="1" s="38">
       <c r="A126" s="36" t="n">
         <v>121</v>
       </c>
@@ -42463,7 +42445,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" hidden="1" s="47">
+    <row r="127">
       <c r="A127" s="24" t="n">
         <v>122</v>
       </c>
@@ -42783,7 +42765,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" hidden="1" s="47">
+    <row r="128">
       <c r="A128" s="24" t="n">
         <v>123</v>
       </c>
@@ -43103,7 +43085,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" hidden="1" s="47">
+    <row r="129">
       <c r="A129" s="24" t="n">
         <v>124</v>
       </c>
@@ -43421,7 +43403,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" hidden="1" customFormat="1" s="38">
+    <row r="130" customFormat="1" s="38">
       <c r="A130" s="36" t="n">
         <v>125</v>
       </c>
@@ -43741,7 +43723,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" hidden="1" s="47">
+    <row r="131">
       <c r="A131" s="24" t="n">
         <v>126</v>
       </c>
@@ -44065,7 +44047,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" hidden="1" s="47">
+    <row r="132">
       <c r="A132" s="24" t="n">
         <v>127</v>
       </c>
@@ -44385,7 +44367,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" hidden="1" s="47">
+    <row r="133">
       <c r="A133" s="24" t="n">
         <v>128</v>
       </c>
@@ -44705,7 +44687,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" hidden="1" s="47">
+    <row r="134">
       <c r="A134" s="24" t="n">
         <v>129</v>
       </c>
@@ -45025,7 +45007,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" hidden="1" s="47">
+    <row r="135">
       <c r="A135" s="24" t="n">
         <v>130</v>
       </c>
@@ -45345,7 +45327,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" hidden="1" s="47">
+    <row r="136">
       <c r="A136" s="24" t="n">
         <v>131</v>
       </c>
@@ -45663,7 +45645,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" hidden="1" s="47">
+    <row r="137">
       <c r="A137" s="24" t="n">
         <v>132</v>
       </c>
@@ -45991,7 +45973,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" hidden="1" s="47">
+    <row r="138">
       <c r="A138" s="24" t="n">
         <v>133</v>
       </c>
@@ -46315,7 +46297,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" hidden="1" s="47">
+    <row r="139">
       <c r="A139" s="24" t="n">
         <v>134</v>
       </c>
@@ -46635,7 +46617,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" hidden="1" s="47">
+    <row r="140">
       <c r="A140" s="24" t="n">
         <v>135</v>
       </c>
@@ -46955,7 +46937,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" hidden="1" s="47">
+    <row r="141">
       <c r="A141" s="24" t="n">
         <v>136</v>
       </c>
@@ -47279,7 +47261,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" hidden="1" s="47">
+    <row r="142">
       <c r="A142" s="24" t="n">
         <v>137</v>
       </c>
@@ -47599,7 +47581,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" hidden="1" s="47">
+    <row r="143">
       <c r="A143" s="24" t="n">
         <v>138</v>
       </c>
@@ -47923,7 +47905,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" hidden="1" s="47">
+    <row r="144">
       <c r="A144" s="24" t="n">
         <v>139</v>
       </c>
@@ -48243,7 +48225,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" hidden="1" customFormat="1" s="38">
+    <row r="145" customFormat="1" s="38">
       <c r="A145" s="36" t="n">
         <v>140</v>
       </c>
@@ -48563,7 +48545,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" hidden="1" s="47">
+    <row r="146">
       <c r="A146" s="24" t="n">
         <v>141</v>
       </c>
@@ -48883,173 +48865,173 @@
         <v/>
       </c>
     </row>
-    <row r="147" hidden="1" s="47">
-      <c r="A147" s="24" t="n">
+    <row r="147" customFormat="1" s="44">
+      <c r="A147" s="42" t="n">
         <v>142</v>
       </c>
-      <c r="B147" s="24" t="inlineStr">
+      <c r="B147" s="42" t="inlineStr">
         <is>
           <t>出口/Export</t>
         </is>
       </c>
-      <c r="C147" s="24" t="inlineStr">
+      <c r="C147" s="42" t="inlineStr">
         <is>
           <t>SHI</t>
         </is>
       </c>
-      <c r="D147" s="24" t="inlineStr">
+      <c r="D147" s="42" t="inlineStr">
         <is>
           <t>客户发展部</t>
         </is>
       </c>
-      <c r="E147" s="24" t="inlineStr">
+      <c r="E147" s="42" t="inlineStr">
         <is>
           <t>HC18所</t>
         </is>
       </c>
-      <c r="F147" s="24" t="inlineStr">
+      <c r="F147" s="42" t="inlineStr">
         <is>
           <t>廖剑涛/Kirk Kralapp/Joana</t>
         </is>
       </c>
-      <c r="G147" s="24" t="inlineStr">
+      <c r="G147" s="42" t="inlineStr">
         <is>
           <t>TLA100</t>
         </is>
       </c>
-      <c r="H147" s="24" t="inlineStr">
+      <c r="H147" s="42" t="inlineStr">
         <is>
           <t>TESLA, Inc</t>
         </is>
       </c>
-      <c r="I147" s="24" t="inlineStr">
+      <c r="I147" s="42" t="inlineStr">
         <is>
           <t>HC18</t>
         </is>
       </c>
-      <c r="J147" s="24" t="inlineStr">
+      <c r="J147" s="42" t="inlineStr">
         <is>
           <t>美洲</t>
         </is>
       </c>
-      <c r="K147" s="24" t="inlineStr">
+      <c r="K147" s="42" t="inlineStr">
         <is>
           <t>HC18</t>
         </is>
       </c>
-      <c r="L147" s="24" t="inlineStr">
+      <c r="L147" s="42" t="inlineStr">
         <is>
           <t>OEM</t>
         </is>
       </c>
-      <c r="M147" s="24" t="inlineStr">
+      <c r="M147" s="42" t="inlineStr">
         <is>
           <t>批量/SOP</t>
         </is>
       </c>
-      <c r="N147" s="24" t="inlineStr">
+      <c r="N147" s="42" t="inlineStr">
         <is>
           <t>集成模块/Integrated Module</t>
         </is>
       </c>
-      <c r="O147" s="24" t="inlineStr">
+      <c r="O147" s="42" t="inlineStr">
         <is>
           <t>新能源产品</t>
         </is>
       </c>
-      <c r="P147" s="24" t="inlineStr">
+      <c r="P147" s="42" t="inlineStr">
         <is>
           <t>事业五部</t>
         </is>
       </c>
-      <c r="Q147" s="24" t="inlineStr">
+      <c r="Q147" s="42" t="inlineStr">
         <is>
           <t>绍兴工厂</t>
         </is>
       </c>
-      <c r="R147" s="24" t="inlineStr">
+      <c r="R147" s="42" t="inlineStr">
         <is>
           <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
-      <c r="S147" s="24" t="inlineStr">
+      <c r="S147" s="42" t="inlineStr">
         <is>
           <t>01320100090</t>
         </is>
       </c>
-      <c r="T147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V147" s="24" t="inlineStr">
+      <c r="T147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" s="42" t="inlineStr">
         <is>
           <t>ASY,RAPTOR,TC,MP2XL</t>
         </is>
       </c>
-      <c r="W147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X147" s="24" t="inlineStr">
-        <is>
-          <t>1739701-00-B</t>
-        </is>
-      </c>
-      <c r="Y147" s="24" t="inlineStr">
+      <c r="W147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" s="42" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="Y147" s="42" t="inlineStr">
         <is>
           <t>批量SOP</t>
         </is>
       </c>
-      <c r="Z147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC147" s="24" t="inlineStr">
+      <c r="Z147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="42" t="inlineStr">
         <is>
           <t>HC18（储能）</t>
         </is>
       </c>
-      <c r="AD147" s="24" t="inlineStr">
+      <c r="AD147" s="42" t="inlineStr">
         <is>
           <t>Raptor</t>
         </is>
       </c>
-      <c r="AE147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI147" s="24" t="inlineStr">
+      <c r="AE147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="42" t="inlineStr">
         <is>
           <t>美元/USD</t>
         </is>
       </c>
-      <c r="AJ147" s="24" t="n">
+      <c r="AJ147" s="42" t="n">
         <v>6.8</v>
       </c>
-      <c r="AK147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN147" s="24" t="n">
+      <c r="AK147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="42" t="n">
         <v>0</v>
       </c>
       <c r="AO147" s="42" t="n">
@@ -49064,154 +49046,154 @@
       <c r="AR147" s="42" t="n">
         <v>0.024</v>
       </c>
-      <c r="AS147" s="24" t="n">
+      <c r="AS147" s="42" t="n">
         <v>0.028</v>
       </c>
-      <c r="AT147" s="24" t="n">
+      <c r="AT147" s="42" t="n">
         <v>0.028</v>
       </c>
-      <c r="AU147" s="24" t="n">
+      <c r="AU147" s="42" t="n">
         <v>0.028</v>
       </c>
-      <c r="AV147" s="24" t="n">
+      <c r="AV147" s="42" t="n">
         <v>0.032</v>
       </c>
-      <c r="AW147" s="24" t="n">
+      <c r="AW147" s="42" t="n">
         <v>0.032</v>
       </c>
-      <c r="AX147" s="24" t="n">
+      <c r="AX147" s="42" t="n">
         <v>0.032</v>
       </c>
-      <c r="AY147" s="24" t="n">
+      <c r="AY147" s="42" t="n">
         <v>0.036</v>
       </c>
-      <c r="AZ147" s="24" t="n">
+      <c r="AZ147" s="42" t="n">
         <v>0.036</v>
       </c>
-      <c r="BA147" s="24" t="n">
+      <c r="BA147" s="42" t="n">
         <v>0.036</v>
       </c>
-      <c r="BB147" s="24" t="n">
+      <c r="BB147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BC147" s="24" t="n">
+      <c r="BC147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BD147" s="24" t="n">
+      <c r="BD147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BE147" s="24" t="n">
+      <c r="BE147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BF147" s="24" t="n">
+      <c r="BF147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BG147" s="24" t="n">
+      <c r="BG147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BH147" s="24" t="n">
+      <c r="BH147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BI147" s="24" t="n">
+      <c r="BI147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BJ147" s="24" t="n">
+      <c r="BJ147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BK147" s="24" t="n">
+      <c r="BK147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BL147" s="24" t="n">
+      <c r="BL147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BM147" s="24" t="n">
+      <c r="BM147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BN147" s="24" t="n">
+      <c r="BN147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BO147" s="24" t="n">
+      <c r="BO147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BP147" s="24" t="n">
+      <c r="BP147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BQ147" s="24" t="n">
+      <c r="BQ147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BR147" s="24" t="n">
+      <c r="BR147" s="42" t="n">
         <v>1250</v>
       </c>
-      <c r="BS147" s="24">
+      <c r="BS147" s="42">
         <f>BB147*AK147*$AJ147</f>
         <v/>
       </c>
-      <c r="BT147" s="24">
+      <c r="BT147" s="42">
         <f>BC147*AL147*$AJ147</f>
         <v/>
       </c>
-      <c r="BU147" s="24">
+      <c r="BU147" s="42">
         <f>BD147*AM147*$AJ147</f>
         <v/>
       </c>
-      <c r="BV147" s="26">
+      <c r="BV147" s="42">
         <f>BE147*AN147*$AJ147</f>
         <v/>
       </c>
-      <c r="BW147" s="26">
+      <c r="BW147" s="42">
         <f>BF147*AO147*$AJ147</f>
         <v/>
       </c>
-      <c r="BX147" s="26">
+      <c r="BX147" s="42">
         <f>AP147*BG147*$AJ147</f>
         <v/>
       </c>
-      <c r="BY147" s="24">
+      <c r="BY147" s="42">
         <f>AQ147*BH147*$AJ147</f>
         <v/>
       </c>
-      <c r="BZ147" s="24">
+      <c r="BZ147" s="42">
         <f>AR147*BI147*$AJ147</f>
         <v/>
       </c>
-      <c r="CA147" s="24">
+      <c r="CA147" s="42">
         <f>AS147*BJ147*$AJ147</f>
         <v/>
       </c>
-      <c r="CB147" s="24">
+      <c r="CB147" s="42">
         <f>AT147*BK147*$AJ147</f>
         <v/>
       </c>
-      <c r="CC147" s="24">
+      <c r="CC147" s="42">
         <f>AU147*BL147*$AJ147</f>
         <v/>
       </c>
-      <c r="CD147" s="24">
+      <c r="CD147" s="42">
         <f>AV147*BM147*$AJ147</f>
         <v/>
       </c>
-      <c r="CE147" s="24">
+      <c r="CE147" s="42">
         <f>AW147*BN147*$AJ147</f>
         <v/>
       </c>
-      <c r="CF147" s="24">
+      <c r="CF147" s="42">
         <f>AX147*BO147*$AJ147</f>
         <v/>
       </c>
-      <c r="CG147" s="24">
+      <c r="CG147" s="42">
         <f>AY147*BP147*$AJ147</f>
         <v/>
       </c>
-      <c r="CH147" s="24">
+      <c r="CH147" s="42">
         <f>AZ147*BQ147*$AJ147</f>
         <v/>
       </c>
-      <c r="CI147" s="24">
+      <c r="CI147" s="42">
         <f>BA147*BR147*$AJ147</f>
         <v/>
       </c>
     </row>
-    <row r="148" hidden="1" s="47">
+    <row r="148">
       <c r="A148" s="24" t="n">
         <v>143</v>
       </c>
@@ -49531,7 +49513,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" hidden="1" s="47">
+    <row r="149">
       <c r="A149" s="24" t="n">
         <v>144</v>
       </c>
@@ -49851,7 +49833,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" hidden="1" s="47">
+    <row r="150">
       <c r="A150" s="24" t="n">
         <v>145</v>
       </c>
@@ -50171,7 +50153,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" hidden="1" s="47">
+    <row r="151">
       <c r="A151" s="24" t="n">
         <v>146</v>
       </c>
@@ -50491,7 +50473,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" hidden="1" s="47">
+    <row r="152">
       <c r="A152" s="24" t="n">
         <v>147</v>
       </c>
@@ -50811,7 +50793,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" hidden="1" s="47">
+    <row r="153">
       <c r="A153" s="24" t="n">
         <v>148</v>
       </c>
@@ -51131,7 +51113,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" hidden="1" s="47">
+    <row r="154">
       <c r="A154" s="24" t="n">
         <v>149</v>
       </c>
@@ -51451,7 +51433,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" hidden="1" s="47">
+    <row r="155">
       <c r="A155" s="24" t="n">
         <v>150</v>
       </c>
@@ -51771,7 +51753,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" hidden="1" s="47">
+    <row r="156">
       <c r="A156" s="24" t="n">
         <v>151</v>
       </c>
@@ -52089,7 +52071,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" hidden="1" s="47">
+    <row r="157">
       <c r="A157" s="24" t="n">
         <v>152</v>
       </c>
@@ -52407,7 +52389,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" hidden="1" s="47">
+    <row r="158">
       <c r="A158" s="24" t="n">
         <v>153</v>
       </c>
@@ -52725,7 +52707,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" hidden="1" s="47">
+    <row r="159">
       <c r="A159" s="24" t="n">
         <v>154</v>
       </c>
@@ -53043,7 +53025,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" hidden="1" s="47">
+    <row r="160">
       <c r="A160" s="24" t="n">
         <v>155</v>
       </c>
@@ -53361,7 +53343,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" hidden="1" s="47">
+    <row r="161">
       <c r="A161" s="24" t="n">
         <v>156</v>
       </c>
@@ -53679,7 +53661,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" hidden="1" s="47">
+    <row r="162">
       <c r="A162" s="24" t="n">
         <v>157</v>
       </c>
@@ -53997,7 +53979,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" hidden="1" s="47">
+    <row r="163">
       <c r="A163" s="24" t="n">
         <v>158</v>
       </c>
@@ -54315,7 +54297,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" hidden="1" s="47">
+    <row r="164">
       <c r="A164" s="24" t="n">
         <v>159</v>
       </c>
@@ -54633,7 +54615,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" hidden="1" s="47">
+    <row r="165">
       <c r="A165" s="24" t="n">
         <v>160</v>
       </c>
@@ -54951,7 +54933,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" hidden="1" s="47">
+    <row r="166">
       <c r="A166" s="24" t="n">
         <v>161</v>
       </c>
@@ -55269,7 +55251,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" hidden="1" s="47">
+    <row r="167">
       <c r="A167" s="24" t="n">
         <v>162</v>
       </c>
@@ -55587,7 +55569,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" hidden="1" s="47">
+    <row r="168">
       <c r="A168" s="24" t="n">
         <v>163</v>
       </c>
@@ -55905,7 +55887,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" hidden="1" s="47">
+    <row r="169">
       <c r="A169" s="24" t="n">
         <v>164</v>
       </c>
@@ -56227,7 +56209,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" hidden="1" s="47">
+    <row r="170">
       <c r="A170" s="24" t="n">
         <v>165</v>
       </c>
@@ -56557,7 +56539,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" hidden="1" s="47">
+    <row r="171">
       <c r="A171" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增1</t>
@@ -56891,7 +56873,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" hidden="1" s="47">
+    <row r="172">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>客户发展部新增2</t>
@@ -57229,7 +57211,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" hidden="1" customFormat="1" s="31">
+    <row r="173" customFormat="1" s="31">
       <c r="A173" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增3</t>
@@ -57565,7 +57547,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" hidden="1" customFormat="1" s="31">
+    <row r="174" customFormat="1" s="31">
       <c r="A174" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增4</t>
@@ -57899,7 +57881,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" hidden="1" customFormat="1" s="31">
+    <row r="175" customFormat="1" s="31">
       <c r="A175" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增5</t>
@@ -58233,7 +58215,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" hidden="1" customFormat="1" s="31">
+    <row r="176" customFormat="1" s="31">
       <c r="A176" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增6</t>
@@ -58567,7 +58549,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" hidden="1" customFormat="1" s="31">
+    <row r="177" customFormat="1" s="31">
       <c r="A177" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增7</t>
@@ -58899,7 +58881,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" hidden="1" customFormat="1" s="31">
+    <row r="178" customFormat="1" s="31">
       <c r="A178" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增8</t>
@@ -59231,7 +59213,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" hidden="1" customFormat="1" s="31">
+    <row r="179" customFormat="1" s="31">
       <c r="A179" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增9</t>
@@ -59563,7 +59545,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" hidden="1" customFormat="1" s="31">
+    <row r="180" customFormat="1" s="31">
       <c r="A180" s="32" t="inlineStr">
         <is>
           <t>客户发展部新增10</t>
@@ -59897,7 +59879,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" hidden="1" customFormat="1" s="31">
+    <row r="181" customFormat="1" s="31">
       <c r="A181" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增11</t>
@@ -60231,7 +60213,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" hidden="1" customFormat="1" s="31">
+    <row r="182" customFormat="1" s="31">
       <c r="A182" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增12</t>
@@ -60563,7 +60545,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" hidden="1" customFormat="1" s="39">
+    <row r="183" customFormat="1" s="39">
       <c r="A183" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增13</t>
@@ -60901,7 +60883,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" hidden="1" customFormat="1" s="39">
+    <row r="184" customFormat="1" s="39">
       <c r="A184" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增14</t>
@@ -61233,7 +61215,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" hidden="1" customFormat="1" s="31">
+    <row r="185" customFormat="1" s="31">
       <c r="A185" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增15</t>
@@ -61565,7 +61547,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" hidden="1" customFormat="1" s="31">
+    <row r="186" customFormat="1" s="31">
       <c r="A186" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增16</t>
@@ -61897,7 +61879,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" hidden="1" s="47">
+    <row r="187">
       <c r="A187" s="24" t="n">
         <v>505</v>
       </c>
@@ -62219,7 +62201,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" hidden="1" s="47">
+    <row r="188">
       <c r="A188" s="24" t="n">
         <v>506</v>
       </c>
@@ -62541,7 +62523,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" hidden="1" s="47">
+    <row r="189">
       <c r="A189" s="28" t="n">
         <v>507</v>
       </c>
@@ -62865,7 +62847,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" hidden="1" s="47">
+    <row r="190">
       <c r="A190" s="28" t="n">
         <v>508</v>
       </c>
@@ -63185,7 +63167,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" hidden="1" s="47">
+    <row r="191">
       <c r="A191" s="28" t="n">
         <v>509</v>
       </c>
@@ -63515,7 +63497,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" hidden="1" s="47">
+    <row r="192">
       <c r="A192" s="28" t="n">
         <v>510</v>
       </c>
@@ -63847,7 +63829,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" hidden="1" s="47">
+    <row r="193">
       <c r="A193" s="24" t="n">
         <v>511</v>
       </c>
@@ -64313,13 +64295,6 @@
       <c r="AX200" s="35" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CI193">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="宁波拓普集团股份有限公司"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>
@@ -64374,34 +64349,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -64425,7 +64400,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -64442,14 +64417,14 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28</v>
+        <v>0.364</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -64473,7 +64448,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -64497,7 +64472,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -64514,14 +64489,14 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.288</v>
+        <v>0.384</v>
       </c>
       <c r="F6" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -64545,7 +64520,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -64562,14 +64537,14 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.504</v>
+        <v>0.252</v>
       </c>
       <c r="F8" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -64593,7 +64568,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -64617,7 +64592,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -64641,7 +64616,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -64665,7 +64640,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -64682,14 +64657,14 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2352</v>
+        <v>0.4368</v>
       </c>
       <c r="F13" t="n">
         <v>7700003372</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -64706,14 +64681,14 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0832</v>
+        <v>1.2432</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -64737,7 +64712,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -64761,7 +64736,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>45</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -64785,7 +64760,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>48</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -64802,14 +64777,14 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>5.236</v>
+        <v>4.956</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -64833,7 +64808,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -64876,34 +64851,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -64927,7 +64902,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -64951,7 +64926,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -64975,7 +64950,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -64999,7 +64974,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -65016,14 +64991,14 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.384</v>
+        <v>0.624</v>
       </c>
       <c r="F6" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -65047,7 +65022,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -65064,14 +65039,14 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.828</v>
+        <v>0.9</v>
       </c>
       <c r="F8" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -65095,7 +65070,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -65119,7 +65094,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -65143,7 +65118,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -65167,7 +65142,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -65184,14 +65159,14 @@
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3696</v>
+        <v>0.6048</v>
       </c>
       <c r="F13" t="n">
         <v>7700003372</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -65208,14 +65183,14 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0576</v>
+        <v>3.1248</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>40</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -65239,7 +65214,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -65263,7 +65238,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -65287,7 +65262,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>49</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -65304,14 +65279,14 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>10.64</v>
+        <v>10.248</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -65335,7 +65310,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>55</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -65378,34 +65353,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -65429,7 +65404,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -65446,14 +65421,14 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.288</v>
+        <v>1.232</v>
       </c>
       <c r="F3" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -65477,7 +65452,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -65501,7 +65476,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -65518,14 +65493,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.192</v>
+        <v>0.096</v>
       </c>
       <c r="F6" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -65549,7 +65524,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -65566,14 +65541,14 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.324</v>
+        <v>0.432</v>
       </c>
       <c r="F8" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -65597,7 +65572,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -65621,7 +65596,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -65645,7 +65620,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -65669,7 +65644,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -65686,14 +65661,14 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2016</v>
+        <v>0.1008</v>
       </c>
       <c r="F13" t="n">
         <v>7700003372</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>38</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -65710,14 +65685,14 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.6464</v>
+        <v>1.5792</v>
       </c>
       <c r="F14" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -65741,7 +65716,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -65765,7 +65740,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -65789,7 +65764,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>50</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -65806,14 +65781,14 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.18</v>
+        <v>5.124000000000001</v>
       </c>
       <c r="F18" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -65837,7 +65812,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>56</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -65880,34 +65855,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>wuliao_code</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="n">
+      <c r="A2" s="49" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -65931,7 +65906,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="n">
+      <c r="A3" s="49" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -65955,7 +65930,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -65979,7 +65954,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -65996,14 +65971,14 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.28</v>
+        <v>0.364</v>
       </c>
       <c r="F5" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="49" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -66027,7 +66002,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="49" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -66044,14 +66019,14 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.288</v>
+        <v>1.232</v>
       </c>
       <c r="F7" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="49" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -66075,7 +66050,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="49" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -66099,7 +66074,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="n">
+      <c r="A10" s="49" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -66123,7 +66098,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="n">
+      <c r="A11" s="49" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -66147,7 +66122,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
+      <c r="A12" s="49" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -66171,7 +66146,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="49" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -66195,7 +66170,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="49" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -66212,14 +66187,14 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.288</v>
+        <v>0.384</v>
       </c>
       <c r="F14" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="49" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -66236,14 +66211,14 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.384</v>
+        <v>0.624</v>
       </c>
       <c r="F15" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="49" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -66260,14 +66235,14 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.192</v>
+        <v>0.096</v>
       </c>
       <c r="F16" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="49" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -66291,7 +66266,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48" t="n">
+      <c r="A18" s="49" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -66315,7 +66290,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
+      <c r="A19" s="49" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -66339,7 +66314,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="49" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -66356,14 +66331,14 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.504</v>
+        <v>0.252</v>
       </c>
       <c r="F20" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48" t="n">
+      <c r="A21" s="49" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -66380,14 +66355,14 @@
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0.828</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48" t="n">
+      <c r="A22" s="49" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -66404,14 +66379,14 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.324</v>
+        <v>0.432</v>
       </c>
       <c r="F22" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48" t="n">
+      <c r="A23" s="49" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -66435,7 +66410,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48" t="n">
+      <c r="A24" s="49" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -66459,7 +66434,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48" t="n">
+      <c r="A25" s="49" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -66483,7 +66458,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="48" t="n">
+      <c r="A26" s="49" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -66507,7 +66482,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="48" t="n">
+      <c r="A27" s="49" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -66531,7 +66506,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="48" t="n">
+      <c r="A28" s="49" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -66555,7 +66530,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="48" t="n">
+      <c r="A29" s="49" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -66579,7 +66554,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="48" t="n">
+      <c r="A30" s="49" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -66603,7 +66578,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="48" t="n">
+      <c r="A31" s="49" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -66627,7 +66602,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="48" t="n">
+      <c r="A32" s="49" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -66651,7 +66626,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="48" t="n">
+      <c r="A33" s="49" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -66675,7 +66650,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="48" t="n">
+      <c r="A34" s="49" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -66699,7 +66674,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="48" t="n">
+      <c r="A35" s="49" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -66716,14 +66691,14 @@
         <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2352</v>
+        <v>0.4368</v>
       </c>
       <c r="F35" t="n">
         <v>7700003372</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="48" t="n">
+      <c r="A36" s="49" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -66740,14 +66715,14 @@
         <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3696</v>
+        <v>0.6048</v>
       </c>
       <c r="F36" t="n">
         <v>7700003372</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="48" t="n">
+      <c r="A37" s="49" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -66764,14 +66739,14 @@
         <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2016</v>
+        <v>0.1008</v>
       </c>
       <c r="F37" t="n">
         <v>7700003372</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="48" t="n">
+      <c r="A38" s="49" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -66788,14 +66763,14 @@
         <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>2.0832</v>
+        <v>1.2432</v>
       </c>
       <c r="F38" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="48" t="n">
+      <c r="A39" s="49" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -66812,14 +66787,14 @@
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0576</v>
+        <v>3.1248</v>
       </c>
       <c r="F39" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="48" t="n">
+      <c r="A40" s="49" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -66836,14 +66811,14 @@
         <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>1.6464</v>
+        <v>1.5792</v>
       </c>
       <c r="F40" t="n">
         <v>7700015506</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="48" t="n">
+      <c r="A41" s="49" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -66867,7 +66842,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="48" t="n">
+      <c r="A42" s="49" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -66891,7 +66866,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="48" t="n">
+      <c r="A43" s="49" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -66915,7 +66890,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="48" t="n">
+      <c r="A44" s="49" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -66939,7 +66914,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="48" t="n">
+      <c r="A45" s="49" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -66963,7 +66938,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="48" t="n">
+      <c r="A46" s="49" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -66987,7 +66962,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="48" t="n">
+      <c r="A47" s="49" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -67011,7 +66986,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="48" t="n">
+      <c r="A48" s="49" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -67035,7 +67010,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="48" t="n">
+      <c r="A49" s="49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -67059,7 +67034,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="48" t="n">
+      <c r="A50" s="49" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -67076,14 +67051,14 @@
         <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>5.236</v>
+        <v>4.956</v>
       </c>
       <c r="F50" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="48" t="n">
+      <c r="A51" s="49" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -67100,14 +67075,14 @@
         <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>10.64</v>
+        <v>10.248</v>
       </c>
       <c r="F51" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="48" t="n">
+      <c r="A52" s="49" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -67124,14 +67099,14 @@
         <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>5.18</v>
+        <v>5.124000000000001</v>
       </c>
       <c r="F52" t="n">
         <v>7700002394</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="48" t="n">
+      <c r="A53" s="49" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -67155,7 +67130,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="48" t="n">
+      <c r="A54" s="49" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -67179,7 +67154,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="48" t="n">
+      <c r="A55" s="49" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -67203,7 +67178,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="48" t="n">
+      <c r="A56" s="49" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -67227,7 +67202,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="48" t="n">
+      <c r="A57" s="49" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -67251,7 +67226,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="48" t="n">
+      <c r="A58" s="49" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
